--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1701986.856394931</v>
+        <v>1709863.136947853</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2997365.891961481</v>
+        <v>2996990.669477575</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11054893.69793767</v>
+        <v>11063234.62643689</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6476052.473824746</v>
+        <v>6474705.733315641</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>28.4563189080576</v>
+        <v>27.81845872608313</v>
       </c>
       <c r="V11" t="n">
-        <v>25.06432569421714</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.06432569421714</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>27.81845872608313</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>19.54805109077634</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,25 +1570,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.516274603440777</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.81845872608313</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,64 +1686,64 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D15" t="n">
+      <c r="S15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="H16" t="n">
         <v>39.58387696184059</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>72.67942647290943</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>73.07850015094458</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>75.96531553623421</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>53.12650415115282</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,22 +1974,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>72.67942647290944</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>26.95500488561084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>72.67942647290943</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>57.08905141641052</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.89191455143213</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>49.06585860515521</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>100.3947830442139</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>111.8906025992281</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>128.5546683079458</v>
       </c>
       <c r="C21" t="n">
-        <v>134.4309807469223</v>
+        <v>134.7299836463942</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>109.4665502227172</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>106.7916941519904</v>
+        <v>107.0906970514623</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>73.95792599510304</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.71165059276129</v>
+        <v>62.17931881072158</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>162.1862133529</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>194.5230689080318</v>
+        <v>194.8220718075037</v>
       </c>
       <c r="W21" t="n">
-        <v>213.4174649195262</v>
+        <v>36.29874907677438</v>
       </c>
       <c r="X21" t="n">
-        <v>167.495466962084</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>42.83199511461441</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>48.18352790977283</v>
       </c>
       <c r="R22" t="n">
-        <v>139.015873135776</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>194.7722552169046</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>168.2384269144605</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>44.04695872898166</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.2957209939219</v>
+        <v>124.5947238933938</v>
       </c>
       <c r="C24" t="n">
-        <v>130.4710363323703</v>
+        <v>71.90289293156631</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>105.5066058081653</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>102.8317497374385</v>
+        <v>103.1307526369104</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.29146903882315</v>
+        <v>58.21937439616963</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>129.7447113473643</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>158.2262689383481</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>184.0029223245013</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>209.4575205049742</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>163.5355225475321</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>163.445233121359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.5945175259919</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>9.580279283020324</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>104.4955028900957</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>186.007129671808</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>209.9001806678826</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>64.81402846435664</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>107.5011873637532</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>88.23963945006068</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>147.3905910951563</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>161.4663710730424</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>189.7161744167475</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24.25627357698757</v>
+        <v>106.7029663061887</v>
       </c>
       <c r="C27" t="n">
-        <v>111.0790204972267</v>
+        <v>112.8782816446371</v>
       </c>
       <c r="D27" t="n">
-        <v>85.81558707354975</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>96.01560196431194</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>77.51329981953197</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>52.40522689281779</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>107.6864325850611</v>
       </c>
       <c r="T27" t="n">
-        <v>138.5352502037326</v>
+        <v>140.3345113511429</v>
       </c>
       <c r="U27" t="n">
-        <v>164.3119035898858</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>171.1711086583363</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>191.8647658172409</v>
       </c>
       <c r="X27" t="n">
-        <v>144.1435067123885</v>
+        <v>145.9427678597988</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>88.78525567453369</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.30151422285509</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>108.1607620147801</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.5289627729941</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.53256476060539</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>99.11576134269011</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>190.508164832739</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>156.9551748610058</v>
+        <v>158.7544360084161</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>117.5081498348243</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>94.7772358086177</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,13 +2852,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>218.3015395813158</v>
       </c>
     </row>
     <row r="30">
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.44033732621021</v>
+        <v>57.44033732621018</v>
       </c>
       <c r="T30" t="n">
         <v>85.92189491719397</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>16.73724812207082</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>113.7027556506539</v>
@@ -3010,7 +3010,7 @@
         <v>137.8948095462003</v>
       </c>
       <c r="W31" t="n">
-        <v>79.2436484216897</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X31" t="n">
         <v>111.4668216114095</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>228.6417872175655</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,58 +3041,58 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>225.2319683381395</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>108.8530157865037</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>213.5094246925073</v>
-      </c>
-      <c r="W32" t="n">
-        <v>234.9981349397854</v>
-      </c>
-      <c r="X32" t="n">
-        <v>136.9533879799639</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>30.82637861575624</v>
       </c>
       <c r="G33" t="n">
-        <v>23.100683385583</v>
+        <v>23.10068338558301</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.37263924058472</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>31.17821424530361</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>18.43464402753355</v>
       </c>
       <c r="S34" t="n">
         <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4975753861921</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>137.8948095462003</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>172.2801645589633</v>
       </c>
       <c r="X34" t="n">
         <v>111.4668216114095</v>
@@ -3269,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.5579699696014</v>
+        <v>184.4669269173589</v>
       </c>
       <c r="E35" t="n">
-        <v>212.5579699696014</v>
+        <v>209.431115937056</v>
       </c>
       <c r="F35" t="n">
-        <v>212.5579699696014</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>209.431115937056</v>
       </c>
       <c r="H35" t="n">
-        <v>48.11085127788484</v>
+        <v>209.431115937056</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>139.11020867134</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>37.62745206093277</v>
+        <v>45.40963621890448</v>
       </c>
       <c r="F36" t="n">
         <v>32.83376815688742</v>
@@ -3402,13 +3402,13 @@
         <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>120.5651429129288</v>
+        <v>7.11072265847405</v>
       </c>
       <c r="W36" t="n">
         <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
         <v>93.4472515408079</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
         <v>55.01137686213137</v>
       </c>
       <c r="D37" t="n">
-        <v>36.38002878171589</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>34.19851841007271</v>
@@ -3436,13 +3436,13 @@
         <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>49.99172827094311</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>9.370471194210394</v>
+        <v>33.20350012702009</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>174.2875541000946</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
         <v>106.3492091155983</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>177.4199068154529</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="G38" t="n">
-        <v>201.4304119158184</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="H38" t="n">
-        <v>201.4304119158184</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>114.8203497421868</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>143.070153085892</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>120.9598159031924</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>58.25768382792282</v>
       </c>
       <c r="C39" t="n">
-        <v>64.43299916637123</v>
+        <v>64.43299916637122</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>39.16956574269423</v>
       </c>
       <c r="E39" t="n">
-        <v>4.120123275289441</v>
+        <v>49.36958063345642</v>
       </c>
       <c r="F39" t="n">
-        <v>36.79371257143937</v>
+        <v>36.79371257143936</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.959944414551956</v>
+        <v>3.959944414551941</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>63.4076712818933</v>
       </c>
       <c r="T39" t="n">
-        <v>91.8892288728771</v>
+        <v>91.88922887287708</v>
       </c>
       <c r="U39" t="n">
-        <v>117.6658822590303</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>124.5250873274808</v>
+        <v>36.10659137583412</v>
       </c>
       <c r="W39" t="n">
         <v>143.4194833389751</v>
       </c>
       <c r="X39" t="n">
-        <v>97.49748538153297</v>
+        <v>97.49748538153295</v>
       </c>
       <c r="Y39" t="n">
-        <v>97.40719595535985</v>
+        <v>97.40719595535984</v>
       </c>
     </row>
     <row r="40">
@@ -3664,19 +3664,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.33997319626783</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>37.14554820098674</v>
+        <v>37.14554820098672</v>
       </c>
       <c r="G40" t="n">
-        <v>59.71547953651425</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>53.95167268549507</v>
+        <v>53.95167268549505</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.01789155522498</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>115.7410982150277</v>
       </c>
       <c r="T40" t="n">
-        <v>119.670089606337</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>98.72605366607945</v>
+        <v>178.0435295345464</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>178.2474985146465</v>
       </c>
       <c r="X40" t="n">
         <v>117.4341555670926</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.3091535301503</v>
+        <v>60.80766664884543</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>158.0459644556057</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>139.2068854924974</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>139.6059591705326</v>
       </c>
       <c r="X41" t="n">
-        <v>158.0459644556057</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>158.4990453798055</v>
       </c>
     </row>
     <row r="42">
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>61.28302231294437</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>71.48303720370656</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>85.52112785214344</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>114.0026854431272</v>
@@ -3876,16 +3876,16 @@
         <v>139.7793388292804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>146.6385438977309</v>
       </c>
       <c r="W42" t="n">
-        <v>21.75491469250255</v>
+        <v>95.07158518802741</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>119.6109419517831</v>
       </c>
       <c r="Y42" t="n">
-        <v>119.52065252561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.66993693024291</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>81.82893610676437</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>137.8545547852779</v>
       </c>
       <c r="T43" t="n">
-        <v>141.7835461765871</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>44.2260295428261</v>
       </c>
       <c r="V43" t="n">
-        <v>40.21720943498901</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>139.5476121373428</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>132.4226101004004</v>
       </c>
     </row>
     <row r="44">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="C11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="D11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="E11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="F11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="G11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="H11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="I11" t="n">
-        <v>2.276505512644608</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="J11" t="n">
-        <v>2.276505512644608</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="K11" t="n">
-        <v>30.44826123162163</v>
+        <v>33.79399504644523</v>
       </c>
       <c r="L11" t="n">
-        <v>58.62001695059865</v>
+        <v>65.06133625764222</v>
       </c>
       <c r="M11" t="n">
-        <v>86.79177266957568</v>
+        <v>65.06133625764222</v>
       </c>
       <c r="N11" t="n">
-        <v>86.79177266957568</v>
+        <v>95.06535055121509</v>
       </c>
       <c r="O11" t="n">
-        <v>86.79177266957568</v>
+        <v>95.06535055121509</v>
       </c>
       <c r="P11" t="n">
-        <v>113.8252756322304</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.8252756322304</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="R11" t="n">
-        <v>113.8252756322304</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="S11" t="n">
-        <v>113.8252756322304</v>
+        <v>62.52830198341607</v>
       </c>
       <c r="T11" t="n">
-        <v>113.8252756322304</v>
+        <v>62.52830198341607</v>
       </c>
       <c r="U11" t="n">
-        <v>85.08151915944495</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="V11" t="n">
-        <v>59.76401845821552</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="W11" t="n">
-        <v>31.02026198543006</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="X11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.276505512644608</v>
+        <v>34.42884872474625</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113.8252756322304</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="C12" t="n">
-        <v>113.8252756322304</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="D12" t="n">
-        <v>113.8252756322304</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="E12" t="n">
-        <v>113.8252756322304</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="F12" t="n">
-        <v>88.50777493100097</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="G12" t="n">
-        <v>59.76401845821552</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="H12" t="n">
-        <v>31.02026198543006</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="I12" t="n">
-        <v>2.276505512644608</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="J12" t="n">
-        <v>2.276505512644608</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="K12" t="n">
-        <v>30.44826123162163</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="L12" t="n">
-        <v>57.48176419427635</v>
+        <v>33.79399504644523</v>
       </c>
       <c r="M12" t="n">
-        <v>85.65351991325338</v>
+        <v>65.06133625764222</v>
       </c>
       <c r="N12" t="n">
-        <v>85.65351991325338</v>
+        <v>65.06133625764222</v>
       </c>
       <c r="O12" t="n">
-        <v>85.65351991325338</v>
+        <v>96.32867746883922</v>
       </c>
       <c r="P12" t="n">
-        <v>85.65351991325338</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.8252756322304</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="R12" t="n">
-        <v>113.8252756322304</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="S12" t="n">
-        <v>113.8252756322304</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="T12" t="n">
-        <v>113.8252756322304</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="U12" t="n">
-        <v>113.8252756322304</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="V12" t="n">
-        <v>113.8252756322304</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="W12" t="n">
-        <v>113.8252756322304</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="X12" t="n">
-        <v>113.8252756322304</v>
+        <v>98.23323850374226</v>
       </c>
       <c r="Y12" t="n">
-        <v>113.8252756322304</v>
+        <v>66.33104361424425</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.50952461051486</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="C13" t="n">
-        <v>79.50952461051486</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="D13" t="n">
-        <v>79.50952461051486</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="E13" t="n">
-        <v>79.50952461051486</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="F13" t="n">
-        <v>79.50952461051486</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="G13" t="n">
-        <v>79.50952461051486</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="H13" t="n">
-        <v>79.50952461051486</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="I13" t="n">
-        <v>50.7657681377294</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="J13" t="n">
-        <v>22.02201166494394</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="K13" t="n">
-        <v>2.276505512644608</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="L13" t="n">
-        <v>30.44826123162163</v>
+        <v>33.79399504644523</v>
       </c>
       <c r="M13" t="n">
-        <v>58.62001695059866</v>
+        <v>65.06133625764222</v>
       </c>
       <c r="N13" t="n">
-        <v>86.79177266957568</v>
+        <v>96.32867746883922</v>
       </c>
       <c r="O13" t="n">
-        <v>113.8252756322304</v>
+        <v>124.847436096953</v>
       </c>
       <c r="P13" t="n">
-        <v>113.8252756322304</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.2532810833003</v>
+        <v>126.3326917624121</v>
       </c>
       <c r="R13" t="n">
-        <v>108.2532810833003</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="S13" t="n">
-        <v>108.2532810833003</v>
+        <v>94.43049687291408</v>
       </c>
       <c r="T13" t="n">
-        <v>108.2532810833003</v>
+        <v>66.33104361424425</v>
       </c>
       <c r="U13" t="n">
-        <v>108.2532810833003</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="V13" t="n">
-        <v>108.2532810833003</v>
+        <v>34.42884872474625</v>
       </c>
       <c r="W13" t="n">
-        <v>108.2532810833003</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="X13" t="n">
-        <v>108.2532810833003</v>
+        <v>2.526653835248242</v>
       </c>
       <c r="Y13" t="n">
-        <v>108.2532810833003</v>
+        <v>2.526653835248242</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I14" t="n">
         <v>3.166710156947247</v>
@@ -5282,16 +5282,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M14" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="N14" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O14" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N14" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O14" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
@@ -5300,28 +5300,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.13413836268582</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
         <v>3.166710156947247</v>
@@ -5361,46 +5361,46 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N15" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X15" t="n">
-        <v>118.3517937444931</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y15" t="n">
-        <v>83.13413836268582</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C16" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D16" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E16" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F16" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="G16" t="n">
         <v>123.1178524655551</v>
@@ -5437,19 +5437,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>16.43211663579653</v>
+        <v>16.73132779210571</v>
       </c>
       <c r="L16" t="n">
-        <v>55.62015482801871</v>
+        <v>44.04545279981869</v>
       </c>
       <c r="M16" t="n">
-        <v>94.80819302024089</v>
+        <v>83.23349099204087</v>
       </c>
       <c r="N16" t="n">
-        <v>133.9962312124631</v>
+        <v>122.4215291842631</v>
       </c>
       <c r="O16" t="n">
-        <v>158.3355078473624</v>
+        <v>146.7608058191623</v>
       </c>
       <c r="P16" t="n">
         <v>158.3355078473624</v>
@@ -5479,7 +5479,7 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Y16" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="C17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="D17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="E17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="F17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="G17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="H17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="I17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="J17" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="K17" t="n">
-        <v>6.637465953764267</v>
+        <v>88.29131054270336</v>
       </c>
       <c r="L17" t="n">
-        <v>85.45737415471491</v>
+        <v>169.9814016055784</v>
       </c>
       <c r="M17" t="n">
-        <v>167.5960153325477</v>
+        <v>248.3708829285393</v>
       </c>
       <c r="N17" t="n">
-        <v>167.5960153325477</v>
+        <v>248.3708829285393</v>
       </c>
       <c r="O17" t="n">
-        <v>249.7346565103805</v>
+        <v>248.3708829285393</v>
       </c>
       <c r="P17" t="n">
-        <v>331.8732976882134</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.8732976882134</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="R17" t="n">
-        <v>331.8732976882134</v>
+        <v>246.7122431855017</v>
       </c>
       <c r="S17" t="n">
-        <v>331.8732976882134</v>
+        <v>163.3635123795889</v>
       </c>
       <c r="T17" t="n">
-        <v>331.8732976882134</v>
+        <v>80.0147815736762</v>
       </c>
       <c r="U17" t="n">
-        <v>331.8732976882134</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="V17" t="n">
-        <v>331.8732976882134</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="W17" t="n">
-        <v>258.0566308690774</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="X17" t="n">
-        <v>174.250242563973</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.44385425886865</v>
+        <v>6.601219479828289</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>304.6460200259802</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="C18" t="n">
-        <v>304.6460200259802</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="D18" t="n">
-        <v>304.6460200259802</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="E18" t="n">
-        <v>304.6460200259802</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="F18" t="n">
-        <v>220.8396317208758</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0332434157714</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="H18" t="n">
-        <v>60.30060145997925</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="I18" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="J18" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="K18" t="n">
-        <v>88.77610713159707</v>
+        <v>88.29131054270336</v>
       </c>
       <c r="L18" t="n">
-        <v>88.77610713159707</v>
+        <v>88.29131054270336</v>
       </c>
       <c r="M18" t="n">
-        <v>88.77610713159707</v>
+        <v>97.28623335233499</v>
       </c>
       <c r="N18" t="n">
-        <v>167.5960153325477</v>
+        <v>97.28623335233499</v>
       </c>
       <c r="O18" t="n">
-        <v>249.7346565103805</v>
+        <v>178.9763244152101</v>
       </c>
       <c r="P18" t="n">
-        <v>331.8732976882134</v>
+        <v>260.6664154780851</v>
       </c>
       <c r="Q18" t="n">
-        <v>331.8732976882134</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="R18" t="n">
-        <v>331.8732976882134</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="S18" t="n">
-        <v>331.8732976882134</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="T18" t="n">
-        <v>331.8732976882134</v>
+        <v>256.6474118975665</v>
       </c>
       <c r="U18" t="n">
-        <v>331.8732976882134</v>
+        <v>173.2986810916537</v>
       </c>
       <c r="V18" t="n">
-        <v>331.8732976882134</v>
+        <v>89.94995028574102</v>
       </c>
       <c r="W18" t="n">
-        <v>331.8732976882134</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="X18" t="n">
-        <v>331.8732976882134</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="Y18" t="n">
-        <v>304.6460200259802</v>
+        <v>6.601219479828289</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.9159510653978</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="C19" t="n">
-        <v>231.9159510653978</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="D19" t="n">
-        <v>231.9159510653978</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="E19" t="n">
-        <v>148.1095627602934</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="F19" t="n">
-        <v>148.1095627602934</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="G19" t="n">
-        <v>148.1095627602934</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1095627602934</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="I19" t="n">
-        <v>64.30317445518904</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="J19" t="n">
-        <v>6.637465953764267</v>
+        <v>6.601219479828289</v>
       </c>
       <c r="K19" t="n">
-        <v>20.4980964593999</v>
+        <v>20.16583711498672</v>
       </c>
       <c r="L19" t="n">
-        <v>83.71964888037252</v>
+        <v>83.09137666548219</v>
       </c>
       <c r="M19" t="n">
-        <v>158.8151144858543</v>
+        <v>157.8908294004869</v>
       </c>
       <c r="N19" t="n">
-        <v>238.4133925545503</v>
+        <v>237.1930945987056</v>
       </c>
       <c r="O19" t="n">
-        <v>298.6600966027092</v>
+        <v>297.1437857763874</v>
       </c>
       <c r="P19" t="n">
-        <v>331.8732976882134</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="Q19" t="n">
-        <v>281.4774244039385</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="R19" t="n">
-        <v>281.4774244039385</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="S19" t="n">
-        <v>281.4774244039385</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="T19" t="n">
-        <v>281.4774244039385</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="U19" t="n">
-        <v>281.4774244039385</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="V19" t="n">
-        <v>281.4774244039385</v>
+        <v>330.0609739914144</v>
       </c>
       <c r="W19" t="n">
-        <v>231.9159510653978</v>
+        <v>246.7122431855017</v>
       </c>
       <c r="X19" t="n">
-        <v>231.9159510653978</v>
+        <v>163.3635123795889</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.9159510653978</v>
+        <v>80.0147815736762</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>851.0363448043452</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>851.0363448043452</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>851.0363448043452</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>851.0363448043452</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>851.0363448043452</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>851.0363448043452</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>851.0363448043452</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>851.0363448043452</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>337.6453864375014</v>
+        <v>374.116729898671</v>
       </c>
       <c r="C21" t="n">
-        <v>201.8565169961657</v>
+        <v>238.0258373265557</v>
       </c>
       <c r="D21" t="n">
-        <v>201.8565169961657</v>
+        <v>127.4535643743161</v>
       </c>
       <c r="E21" t="n">
-        <v>201.8565169961657</v>
+        <v>127.4535643743161</v>
       </c>
       <c r="F21" t="n">
-        <v>93.98611886284206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>93.98611886284206</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>918.8938720836046</v>
+        <v>901.2497627725336</v>
       </c>
       <c r="S21" t="n">
-        <v>918.8938720836046</v>
+        <v>901.2497627725336</v>
       </c>
       <c r="T21" t="n">
-        <v>918.8938720836046</v>
+        <v>737.4253048403114</v>
       </c>
       <c r="U21" t="n">
-        <v>918.8938720836046</v>
+        <v>737.4253048403114</v>
       </c>
       <c r="V21" t="n">
-        <v>722.4059236916532</v>
+        <v>540.6353333175803</v>
       </c>
       <c r="W21" t="n">
-        <v>506.8327268032429</v>
+        <v>503.9699302097274</v>
       </c>
       <c r="X21" t="n">
-        <v>337.6453864375014</v>
+        <v>503.9699302097274</v>
       </c>
       <c r="Y21" t="n">
-        <v>337.6453864375014</v>
+        <v>503.9699302097274</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>626.8974299018679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>642.7453760532234</v>
+        <v>34.83307639109104</v>
       </c>
       <c r="L22" t="n">
-        <v>707.9542441199159</v>
+        <v>99.74593158730637</v>
       </c>
       <c r="M22" t="n">
-        <v>785.0370253711176</v>
+        <v>176.5326999680309</v>
       </c>
       <c r="N22" t="n">
-        <v>866.6226190855334</v>
+        <v>257.8222808119696</v>
       </c>
       <c r="O22" t="n">
-        <v>928.8566387794122</v>
+        <v>319.7602876353712</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>354.6647914961181</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>305.9945612842263</v>
       </c>
       <c r="R22" t="n">
-        <v>823.637081636115</v>
+        <v>305.9945612842263</v>
       </c>
       <c r="S22" t="n">
-        <v>823.637081636115</v>
+        <v>305.9945612842263</v>
       </c>
       <c r="T22" t="n">
-        <v>823.637081636115</v>
+        <v>305.9945612842263</v>
       </c>
       <c r="U22" t="n">
-        <v>823.637081636115</v>
+        <v>62.54578464012627</v>
       </c>
       <c r="V22" t="n">
-        <v>823.637081636115</v>
+        <v>62.54578464012627</v>
       </c>
       <c r="W22" t="n">
-        <v>626.8974299018679</v>
+        <v>62.54578464012627</v>
       </c>
       <c r="X22" t="n">
-        <v>626.8974299018679</v>
+        <v>62.54578464012627</v>
       </c>
       <c r="Y22" t="n">
-        <v>626.8974299018679</v>
+        <v>62.54578464012627</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>919.5652780066143</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C23" t="n">
-        <v>919.5652780066143</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>919.5652780066143</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>919.5652780066143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>676.1165013625143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>432.6677247184143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>189.2189480743143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6029,10 +6029,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>919.5652780066143</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>919.5652780066143</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>254.9405229787065</v>
+        <v>302.6551343997501</v>
       </c>
       <c r="C24" t="n">
-        <v>123.1515973904536</v>
+        <v>230.0259496203902</v>
       </c>
       <c r="D24" t="n">
-        <v>123.1515973904536</v>
+        <v>123.4536205212333</v>
       </c>
       <c r="E24" t="n">
-        <v>123.1515973904536</v>
+        <v>123.4536205212333</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>922.3486009259664</v>
+        <v>905.2497066256163</v>
       </c>
       <c r="S24" t="n">
-        <v>922.3486009259664</v>
+        <v>774.1944426383797</v>
       </c>
       <c r="T24" t="n">
-        <v>922.3486009259664</v>
+        <v>614.3699285592402</v>
       </c>
       <c r="U24" t="n">
-        <v>922.3486009259664</v>
+        <v>428.5083908577237</v>
       </c>
       <c r="V24" t="n">
-        <v>922.3486009259664</v>
+        <v>428.5083908577237</v>
       </c>
       <c r="W24" t="n">
-        <v>710.7753478906388</v>
+        <v>428.5083908577237</v>
       </c>
       <c r="X24" t="n">
-        <v>545.5879513779802</v>
+        <v>428.5083908577237</v>
       </c>
       <c r="Y24" t="n">
-        <v>380.4917563059004</v>
+        <v>428.5083908577237</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>613.052409860258</v>
+        <v>124.8321561305114</v>
       </c>
       <c r="C25" t="n">
-        <v>613.052409860258</v>
+        <v>124.8321561305114</v>
       </c>
       <c r="D25" t="n">
-        <v>603.3753600794294</v>
+        <v>124.8321561305114</v>
       </c>
       <c r="E25" t="n">
-        <v>603.3753600794294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>603.3753600794294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>603.3753600794294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>603.3753600794294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>603.3753600794294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>603.3753600794294</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>623.1436512011912</v>
+        <v>38.75342136149747</v>
       </c>
       <c r="L25" t="n">
-        <v>692.2728642382901</v>
+        <v>107.5866215281192</v>
       </c>
       <c r="M25" t="n">
-        <v>773.2759904598983</v>
+        <v>188.2937348792501</v>
       </c>
       <c r="N25" t="n">
-        <v>858.7819291447205</v>
+        <v>273.5036606935952</v>
       </c>
       <c r="O25" t="n">
-        <v>924.9362938090057</v>
+        <v>339.3620124874032</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>378.1868613185565</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>378.1868613185565</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>378.1868613185565</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>378.1868613185565</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>190.3008717510737</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>190.3008717510737</v>
       </c>
       <c r="V25" t="n">
-        <v>752.0367709976235</v>
+        <v>190.3008717510737</v>
       </c>
       <c r="W25" t="n">
-        <v>752.0367709976235</v>
+        <v>124.8321561305114</v>
       </c>
       <c r="X25" t="n">
-        <v>752.0367709976235</v>
+        <v>124.8321561305114</v>
       </c>
       <c r="Y25" t="n">
-        <v>752.0367709976235</v>
+        <v>124.8321561305114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>127.8682010533977</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>127.8682010533977</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>127.8682010533977</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>127.8682010533977</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>127.8682010533977</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>127.8682010533977</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>874.926206571181</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>726.0468216265785</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>562.9494771083539</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>371.3169776974978</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>127.8682010533977</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>127.8682010533977</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>127.8682010533977</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>127.8682010533977</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>315.1500416305041</v>
+        <v>264.5304444809065</v>
       </c>
       <c r="C27" t="n">
-        <v>202.9490108252245</v>
+        <v>150.5119781731923</v>
       </c>
       <c r="D27" t="n">
-        <v>116.2665996398208</v>
+        <v>150.5119781731923</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.5119781731923</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.5119781731923</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>72.21571572922059</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6309,19 +6309,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>855.2829811822917</v>
       </c>
       <c r="T27" t="n">
-        <v>824.1225593452498</v>
+        <v>713.5309495144705</v>
       </c>
       <c r="U27" t="n">
-        <v>658.1509395574863</v>
+        <v>713.5309495144705</v>
       </c>
       <c r="V27" t="n">
-        <v>485.2508298015911</v>
+        <v>713.5309495144705</v>
       </c>
       <c r="W27" t="n">
-        <v>485.2508298015911</v>
+        <v>519.7281557596817</v>
       </c>
       <c r="X27" t="n">
-        <v>339.6513280719057</v>
+        <v>372.3112185275617</v>
       </c>
       <c r="Y27" t="n">
-        <v>339.6513280719057</v>
+        <v>372.3112185275617</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>324.105885216438</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>324.105885216438</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>234.423808777515</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>162.4020772392776</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>162.4020772392776</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>53.14878227485323</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>53.14878227485323</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>53.14878227485323</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>58.24752990876681</v>
+        <v>56.46626137283059</v>
       </c>
       <c r="L28" t="n">
-        <v>146.5748386226579</v>
+        <v>143.0123015507855</v>
       </c>
       <c r="M28" t="n">
-        <v>246.7760605210582</v>
+        <v>241.4322549132495</v>
       </c>
       <c r="N28" t="n">
-        <v>351.4800948826726</v>
+        <v>344.3550207389277</v>
       </c>
       <c r="O28" t="n">
-        <v>436.83255522375</v>
+        <v>427.9262125440688</v>
       </c>
       <c r="P28" t="n">
-        <v>495.1515126021727</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="Q28" t="n">
-        <v>470.3711441571167</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="R28" t="n">
-        <v>470.3711441571167</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="S28" t="n">
-        <v>370.2542135079348</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="T28" t="n">
-        <v>370.2542135079348</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="U28" t="n">
-        <v>370.2542135079348</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="V28" t="n">
-        <v>177.8217237778954</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="W28" t="n">
-        <v>177.8217237778954</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="X28" t="n">
-        <v>177.8217237778954</v>
+        <v>484.4639013865553</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>324.105885216438</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>381.4250205975697</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>381.4250205975697</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>381.4250205975697</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>137.9762439534696</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>137.9762439534696</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>137.9762439534696</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="W29" t="n">
-        <v>726.6853020361056</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="X29" t="n">
-        <v>483.2365253920055</v>
+        <v>868.3225738857699</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>624.8737972416698</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6552,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6582,7 +6582,7 @@
         <v>447.824142074433</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644836</v>
       </c>
       <c r="Y30" t="n">
         <v>263.0059466951132</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
@@ -6646,25 +6646,25 @@
         <v>856.1496427492314</v>
       </c>
       <c r="S31" t="n">
-        <v>745.2670525882772</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="T31" t="n">
-        <v>630.4157842542834</v>
+        <v>741.2983744152375</v>
       </c>
       <c r="U31" t="n">
-        <v>456.6014452857347</v>
+        <v>567.4840354466887</v>
       </c>
       <c r="V31" t="n">
-        <v>317.3137588754313</v>
+        <v>428.1963490363853</v>
       </c>
       <c r="W31" t="n">
-        <v>237.2696695605932</v>
+        <v>254.1759807950082</v>
       </c>
       <c r="X31" t="n">
-        <v>124.6769204581593</v>
+        <v>141.5832316925743</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>36.1874543446277</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>489.6570786467731</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>489.6570786467731</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6728,22 +6728,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>854.1046143121476</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>854.1046143121476</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>638.4385287641605</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>401.0666752896299</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706287</v>
+        <v>210.1874114706286</v>
       </c>
       <c r="C33" t="n">
         <v>151.131183985085</v>
@@ -6765,7 +6765,7 @@
         <v>73.7529229095453</v>
       </c>
       <c r="F33" t="n">
-        <v>42.61516673201373</v>
+        <v>42.61516673201375</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6783,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6813,16 +6813,16 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V33" t="n">
-        <v>586.6646970070512</v>
+        <v>586.664697007051</v>
       </c>
       <c r="W33" t="n">
-        <v>447.8241420744332</v>
+        <v>447.824142074433</v>
       </c>
       <c r="X33" t="n">
         <v>355.3694436644837</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951133</v>
+        <v>263.0059466951132</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>220.7705033783672</v>
+        <v>153.5343739748053</v>
       </c>
       <c r="C34" t="n">
-        <v>220.7705033783672</v>
+        <v>153.5343739748053</v>
       </c>
       <c r="D34" t="n">
-        <v>186.0506657616149</v>
+        <v>153.5343739748053</v>
       </c>
       <c r="E34" t="n">
         <v>153.5343739748053</v>
@@ -6880,28 +6880,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>837.5287901961672</v>
       </c>
       <c r="S34" t="n">
-        <v>681.5796206695481</v>
+        <v>726.646200035213</v>
       </c>
       <c r="T34" t="n">
-        <v>681.5796206695481</v>
+        <v>611.7949317012192</v>
       </c>
       <c r="U34" t="n">
-        <v>578.0467162390511</v>
+        <v>611.7949317012192</v>
       </c>
       <c r="V34" t="n">
-        <v>438.7590298287477</v>
+        <v>611.7949317012192</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7590298287477</v>
+        <v>437.774563459842</v>
       </c>
       <c r="X34" t="n">
-        <v>326.1662807263138</v>
+        <v>325.1818143574081</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.7705033783672</v>
+        <v>219.7860370094616</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>709.7165175841228</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="C35" t="n">
-        <v>709.7165175841228</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="D35" t="n">
-        <v>495.0114974128082</v>
+        <v>651.3942345387707</v>
       </c>
       <c r="E35" t="n">
-        <v>280.3064772414937</v>
+        <v>439.8476527841686</v>
       </c>
       <c r="F35" t="n">
-        <v>65.60145707017907</v>
+        <v>439.8476527841686</v>
       </c>
       <c r="G35" t="n">
-        <v>65.60145707017907</v>
+        <v>228.3010710295666</v>
       </c>
       <c r="H35" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="I35" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="J35" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="K35" t="n">
-        <v>120.0196435084905</v>
+        <v>119.7694951858868</v>
       </c>
       <c r="L35" t="n">
-        <v>300.0954950931491</v>
+        <v>185.6781313286003</v>
       </c>
       <c r="M35" t="n">
-        <v>510.5278853630545</v>
+        <v>393.0149361062858</v>
       </c>
       <c r="N35" t="n">
-        <v>716.3824075702937</v>
+        <v>598.8694583135251</v>
       </c>
       <c r="O35" t="n">
-        <v>760.5718245863548</v>
+        <v>748.0644084561732</v>
       </c>
       <c r="P35" t="n">
-        <v>850.2318798784057</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.2318798784057</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="R35" t="n">
-        <v>850.2318798784057</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="S35" t="n">
-        <v>850.2318798784057</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="T35" t="n">
-        <v>850.2318798784057</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="U35" t="n">
-        <v>709.7165175841228</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="V35" t="n">
-        <v>709.7165175841228</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="W35" t="n">
-        <v>709.7165175841228</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="X35" t="n">
-        <v>709.7165175841228</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="Y35" t="n">
-        <v>709.7165175841228</v>
+        <v>837.7244637482241</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>174.6231708262082</v>
+        <v>182.2338145823638</v>
       </c>
       <c r="C36" t="n">
-        <v>113.5392771375018</v>
+        <v>121.1499208936575</v>
       </c>
       <c r="D36" t="n">
-        <v>113.5392771375018</v>
+        <v>121.1499208936575</v>
       </c>
       <c r="E36" t="n">
-        <v>75.53174980322629</v>
+        <v>75.28160148062265</v>
       </c>
       <c r="F36" t="n">
-        <v>42.36632742253192</v>
+        <v>42.1161790999283</v>
       </c>
       <c r="G36" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="H36" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="I36" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="J36" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="K36" t="n">
-        <v>142.3621976554055</v>
+        <v>142.1120493328019</v>
       </c>
       <c r="L36" t="n">
-        <v>352.7945879253109</v>
+        <v>142.1120493328019</v>
       </c>
       <c r="M36" t="n">
-        <v>352.7945879253109</v>
+        <v>171.0128180661731</v>
       </c>
       <c r="N36" t="n">
-        <v>387.7614534818201</v>
+        <v>378.3496228438585</v>
       </c>
       <c r="O36" t="n">
-        <v>598.1938437517256</v>
+        <v>585.686427621544</v>
       </c>
       <c r="P36" t="n">
-        <v>780.8373213650764</v>
+        <v>768.3299052348948</v>
       </c>
       <c r="Q36" t="n">
-        <v>850.2318798784057</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="R36" t="n">
-        <v>850.2318798784057</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="S36" t="n">
-        <v>790.1836709214953</v>
+        <v>777.6762547913137</v>
       </c>
       <c r="T36" t="n">
-        <v>701.366211872682</v>
+        <v>688.8587957425004</v>
       </c>
       <c r="U36" t="n">
-        <v>586.5117292014918</v>
+        <v>574.0043130713102</v>
       </c>
       <c r="V36" t="n">
-        <v>464.7287565621697</v>
+        <v>566.8217649314374</v>
       </c>
       <c r="W36" t="n">
-        <v>323.8605354263888</v>
+        <v>425.9535437956565</v>
       </c>
       <c r="X36" t="n">
-        <v>323.8605354263888</v>
+        <v>331.4711791825444</v>
       </c>
       <c r="Y36" t="n">
-        <v>229.4693722538555</v>
+        <v>237.0800160100112</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>237.3457762900007</v>
+        <v>230.2439178685213</v>
       </c>
       <c r="C37" t="n">
-        <v>181.7787289545145</v>
+        <v>174.6768705330351</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0312251345994</v>
+        <v>174.6768705330351</v>
       </c>
       <c r="E37" t="n">
-        <v>110.487267144627</v>
+        <v>140.1329125430626</v>
       </c>
       <c r="F37" t="n">
-        <v>76.96645523913732</v>
+        <v>106.612100637573</v>
       </c>
       <c r="G37" t="n">
-        <v>76.96645523913732</v>
+        <v>50.2933782921565</v>
       </c>
       <c r="H37" t="n">
-        <v>26.46976001596245</v>
+        <v>50.2933782921565</v>
       </c>
       <c r="I37" t="n">
-        <v>17.00463759756811</v>
+        <v>16.75448927496448</v>
       </c>
       <c r="J37" t="n">
-        <v>35.69213907619356</v>
+        <v>35.44199075358995</v>
       </c>
       <c r="K37" t="n">
-        <v>124.758431962701</v>
+        <v>124.5082836400974</v>
       </c>
       <c r="L37" t="n">
-        <v>263.1856467645455</v>
+        <v>262.9354984419418</v>
       </c>
       <c r="M37" t="n">
-        <v>413.4867747508991</v>
+        <v>413.2366264282955</v>
       </c>
       <c r="N37" t="n">
-        <v>568.2907152004669</v>
+        <v>568.0405668778633</v>
       </c>
       <c r="O37" t="n">
-        <v>703.7430816294977</v>
+        <v>703.492933306894</v>
       </c>
       <c r="P37" t="n">
-        <v>812.1619450958738</v>
+        <v>811.9117967732701</v>
       </c>
       <c r="Q37" t="n">
-        <v>837.9746120708278</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="R37" t="n">
-        <v>837.9746120708278</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="S37" t="n">
-        <v>837.9746120708278</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="T37" t="n">
-        <v>837.9746120708278</v>
+        <v>837.7244637482241</v>
       </c>
       <c r="U37" t="n">
-        <v>662.1326068991162</v>
+        <v>661.8824585765126</v>
       </c>
       <c r="V37" t="n">
-        <v>520.8172542856501</v>
+        <v>520.5671059630464</v>
       </c>
       <c r="W37" t="n">
-        <v>344.7692198411101</v>
+        <v>520.5671059630464</v>
       </c>
       <c r="X37" t="n">
-        <v>344.7692198411101</v>
+        <v>405.9466906574497</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.3457762900007</v>
+        <v>298.5232471063403</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>423.044558035727</v>
+        <v>602.2565851220431</v>
       </c>
       <c r="C38" t="n">
-        <v>423.044558035727</v>
+        <v>602.2565851220431</v>
       </c>
       <c r="D38" t="n">
-        <v>423.044558035727</v>
+        <v>602.2565851220431</v>
       </c>
       <c r="E38" t="n">
-        <v>423.044558035727</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="F38" t="n">
-        <v>423.044558035727</v>
+        <v>219.5794954944963</v>
       </c>
       <c r="G38" t="n">
-        <v>219.5794954944962</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="H38" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="I38" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="J38" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="K38" t="n">
-        <v>119.1294388641878</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="L38" t="n">
-        <v>299.2052904488464</v>
+        <v>196.1902845379241</v>
       </c>
       <c r="M38" t="n">
-        <v>498.6213982455067</v>
+        <v>395.6063923345844</v>
       </c>
       <c r="N38" t="n">
-        <v>698.0375060421669</v>
+        <v>595.0225001312447</v>
       </c>
       <c r="O38" t="n">
-        <v>716.0615923712228</v>
+        <v>716.0615923712229</v>
       </c>
       <c r="P38" t="n">
-        <v>805.7216476632738</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="Q38" t="n">
-        <v>805.7216476632738</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="R38" t="n">
-        <v>805.7216476632738</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="S38" t="n">
-        <v>805.7216476632738</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="T38" t="n">
-        <v>689.7414964085395</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="U38" t="n">
-        <v>545.2261902611739</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="V38" t="n">
-        <v>545.2261902611739</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="W38" t="n">
-        <v>545.2261902611739</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="X38" t="n">
-        <v>423.044558035727</v>
+        <v>602.2565851220431</v>
       </c>
       <c r="Y38" t="n">
-        <v>423.044558035727</v>
+        <v>602.2565851220431</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>126.5253212640251</v>
+        <v>211.7970617699455</v>
       </c>
       <c r="C39" t="n">
-        <v>61.44148372223594</v>
+        <v>146.7132242281563</v>
       </c>
       <c r="D39" t="n">
-        <v>61.44148372223594</v>
+        <v>107.148006306243</v>
       </c>
       <c r="E39" t="n">
-        <v>57.2797430401254</v>
+        <v>57.27974304012537</v>
       </c>
       <c r="F39" t="n">
-        <v>20.11437680634826</v>
+        <v>20.11437680634825</v>
       </c>
       <c r="G39" t="n">
-        <v>20.11437680634826</v>
+        <v>20.11437680634825</v>
       </c>
       <c r="H39" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="I39" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="J39" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="K39" t="n">
-        <v>141.4719930111029</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="L39" t="n">
-        <v>141.4719930111029</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="M39" t="n">
-        <v>154.8513959432731</v>
+        <v>154.851395943273</v>
       </c>
       <c r="N39" t="n">
-        <v>354.2675037399334</v>
+        <v>354.2675037399333</v>
       </c>
       <c r="O39" t="n">
         <v>553.6836115365936</v>
       </c>
       <c r="P39" t="n">
-        <v>736.3270891499444</v>
+        <v>736.3270891499445</v>
       </c>
       <c r="Q39" t="n">
-        <v>805.7216476632738</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="R39" t="n">
-        <v>805.7216476632738</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="S39" t="n">
-        <v>805.7216476632738</v>
+        <v>741.6734948532807</v>
       </c>
       <c r="T39" t="n">
-        <v>712.9042447613776</v>
+        <v>648.8560919513847</v>
       </c>
       <c r="U39" t="n">
-        <v>594.0498182371045</v>
+        <v>648.8560919513847</v>
       </c>
       <c r="V39" t="n">
-        <v>468.2669017446997</v>
+        <v>612.3847875313502</v>
       </c>
       <c r="W39" t="n">
-        <v>323.398736755836</v>
+        <v>467.5166225424865</v>
       </c>
       <c r="X39" t="n">
-        <v>224.9164282896411</v>
+        <v>369.0343140762916</v>
       </c>
       <c r="Y39" t="n">
-        <v>126.5253212640251</v>
+        <v>270.6432070506756</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.4504939865948</v>
+        <v>148.8792754610934</v>
       </c>
       <c r="C40" t="n">
-        <v>168.4504939865948</v>
+        <v>148.8792754610934</v>
       </c>
       <c r="D40" t="n">
-        <v>168.4504939865948</v>
+        <v>108.1318277880956</v>
       </c>
       <c r="E40" t="n">
-        <v>168.4504939865948</v>
+        <v>108.1318277880956</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9297382280224</v>
+        <v>70.61107202952311</v>
       </c>
       <c r="G40" t="n">
-        <v>70.61107202952313</v>
+        <v>70.61107202952311</v>
       </c>
       <c r="H40" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="I40" t="n">
-        <v>16.11443295326547</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="J40" t="n">
         <v>30.88158946148451</v>
       </c>
       <c r="K40" t="n">
-        <v>116.0275373775855</v>
+        <v>116.0275373775856</v>
       </c>
       <c r="L40" t="n">
-        <v>250.5344072090236</v>
+        <v>250.5344072090237</v>
       </c>
       <c r="M40" t="n">
-        <v>396.9151902249708</v>
+        <v>396.9151902249709</v>
       </c>
       <c r="N40" t="n">
-        <v>547.7987857041322</v>
+        <v>547.7987857041323</v>
       </c>
       <c r="O40" t="n">
-        <v>679.3308071627565</v>
+        <v>679.3308071627566</v>
       </c>
       <c r="P40" t="n">
-        <v>783.8293256587261</v>
+        <v>783.8293256587262</v>
       </c>
       <c r="Q40" t="n">
-        <v>805.7216476632738</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="R40" t="n">
-        <v>736.006605688299</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="S40" t="n">
-        <v>619.0964054710993</v>
+        <v>688.8114474460741</v>
       </c>
       <c r="T40" t="n">
-        <v>498.2175270808599</v>
+        <v>688.8114474460741</v>
       </c>
       <c r="U40" t="n">
-        <v>398.4942405494665</v>
+        <v>508.9694984212798</v>
       </c>
       <c r="V40" t="n">
-        <v>398.4942405494665</v>
+        <v>508.9694984212798</v>
       </c>
       <c r="W40" t="n">
-        <v>398.4942405494665</v>
+        <v>328.9215201236571</v>
       </c>
       <c r="X40" t="n">
-        <v>279.8738813907871</v>
+        <v>210.3011609649777</v>
       </c>
       <c r="Y40" t="n">
-        <v>168.4504939865948</v>
+        <v>148.8792754610934</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.9284538344398</v>
+        <v>172.7799694685718</v>
       </c>
       <c r="C41" t="n">
-        <v>331.9284538344398</v>
+        <v>172.7799694685718</v>
       </c>
       <c r="D41" t="n">
-        <v>331.9284538344398</v>
+        <v>172.7799694685718</v>
       </c>
       <c r="E41" t="n">
-        <v>331.9284538344398</v>
+        <v>172.7799694685718</v>
       </c>
       <c r="F41" t="n">
-        <v>331.9284538344398</v>
+        <v>172.7799694685718</v>
       </c>
       <c r="G41" t="n">
-        <v>172.2860654954441</v>
+        <v>172.7799694685718</v>
       </c>
       <c r="H41" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="I41" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="J41" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="K41" t="n">
-        <v>115.6586830673708</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="L41" t="n">
-        <v>272.1241878784205</v>
+        <v>169.5939785563918</v>
       </c>
       <c r="M41" t="n">
-        <v>386.0582977193221</v>
+        <v>326.5080334823992</v>
       </c>
       <c r="N41" t="n">
-        <v>542.5238025303718</v>
+        <v>483.4220884084067</v>
       </c>
       <c r="O41" t="n">
-        <v>542.5238025303718</v>
+        <v>632.6170385510547</v>
       </c>
       <c r="P41" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="Q41" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="R41" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="S41" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="T41" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="U41" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="V41" t="n">
-        <v>491.5708421734354</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="W41" t="n">
-        <v>491.5708421734354</v>
+        <v>492.9800611449465</v>
       </c>
       <c r="X41" t="n">
-        <v>331.9284538344398</v>
+        <v>492.9800611449465</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.9284538344398</v>
+        <v>332.8800153067591</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>146.7508079813484</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="C42" t="n">
-        <v>146.7508079813484</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="D42" t="n">
-        <v>84.84876524100054</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="E42" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="F42" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="G42" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="H42" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="I42" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="J42" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="K42" t="n">
-        <v>138.0012372142859</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="L42" t="n">
-        <v>294.4667420253355</v>
+        <v>93.85945822787022</v>
       </c>
       <c r="M42" t="n">
-        <v>450.932246836385</v>
+        <v>250.7735131538776</v>
       </c>
       <c r="N42" t="n">
-        <v>607.3977516474347</v>
+        <v>407.6875680798851</v>
       </c>
       <c r="O42" t="n">
-        <v>607.3977516474347</v>
+        <v>564.6016230058925</v>
       </c>
       <c r="P42" t="n">
-        <v>632.1838578224227</v>
+        <v>564.6016230058925</v>
       </c>
       <c r="Q42" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="R42" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="S42" t="n">
-        <v>545.798880193995</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="T42" t="n">
-        <v>430.6446524736645</v>
+        <v>518.8419537988914</v>
       </c>
       <c r="U42" t="n">
-        <v>289.453401130957</v>
+        <v>377.6507024561838</v>
       </c>
       <c r="V42" t="n">
-        <v>289.453401130957</v>
+        <v>229.5309611453445</v>
       </c>
       <c r="W42" t="n">
-        <v>267.4787398253989</v>
+        <v>133.4990569150138</v>
       </c>
       <c r="X42" t="n">
-        <v>267.4787398253989</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="Y42" t="n">
-        <v>146.7508079813484</v>
+        <v>12.67992363038444</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.52440381793815</v>
+        <v>156.2161413088078</v>
       </c>
       <c r="C43" t="n">
-        <v>73.52440381793815</v>
+        <v>156.2161413088078</v>
       </c>
       <c r="D43" t="n">
-        <v>73.52440381793815</v>
+        <v>156.2161413088078</v>
       </c>
       <c r="E43" t="n">
-        <v>12.64367715644845</v>
+        <v>95.33541464731816</v>
       </c>
       <c r="F43" t="n">
-        <v>12.64367715644845</v>
+        <v>95.33541464731816</v>
       </c>
       <c r="G43" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="H43" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="I43" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="J43" t="n">
-        <v>12.64367715644845</v>
+        <v>12.67992363038444</v>
       </c>
       <c r="K43" t="n">
-        <v>75.89730306800186</v>
+        <v>75.93354954193785</v>
       </c>
       <c r="L43" t="n">
-        <v>188.5118508948923</v>
+        <v>188.5480973688283</v>
       </c>
       <c r="M43" t="n">
-        <v>313.0003119062919</v>
+        <v>312.7590120991094</v>
       </c>
       <c r="N43" t="n">
-        <v>439.937961876924</v>
+        <v>441.7502855737231</v>
       </c>
       <c r="O43" t="n">
-        <v>549.5776613310007</v>
+        <v>551.3899850277999</v>
       </c>
       <c r="P43" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="Q43" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="R43" t="n">
-        <v>632.1838578224227</v>
+        <v>633.9961815192219</v>
       </c>
       <c r="S43" t="n">
-        <v>492.9368327867885</v>
+        <v>494.7491564835876</v>
       </c>
       <c r="T43" t="n">
-        <v>349.7211295781146</v>
+        <v>494.7491564835876</v>
       </c>
       <c r="U43" t="n">
-        <v>349.7211295781146</v>
+        <v>450.0763993696219</v>
       </c>
       <c r="V43" t="n">
-        <v>309.0976857043884</v>
+        <v>289.9763535314345</v>
       </c>
       <c r="W43" t="n">
-        <v>309.0976857043884</v>
+        <v>289.9763535314345</v>
       </c>
       <c r="X43" t="n">
-        <v>168.1405017272744</v>
+        <v>289.9763535314345</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.1405017272744</v>
+        <v>156.2161413088078</v>
       </c>
     </row>
     <row r="44">
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>248.5461699530381</v>
+        <v>251.6730239855836</v>
       </c>
       <c r="L11" t="n">
-        <v>264.2227338780448</v>
+        <v>267.3495879105902</v>
       </c>
       <c r="M11" t="n">
-        <v>258.8025521353304</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>259.720148741614</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>258.5395644044157</v>
+        <v>262.8161686958725</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>166.2977578824166</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>165.8609484290204</v>
+        <v>170.1375527204772</v>
       </c>
       <c r="M12" t="n">
-        <v>170.5903528300759</v>
+        <v>173.7172068626213</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>174.1794173850475</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>164.2814925593534</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.4380929940791</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8854,10 +8854,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>167.3821028556627</v>
+        <v>170.5089568882081</v>
       </c>
       <c r="N13" t="n">
-        <v>156.1418633732908</v>
+        <v>159.2687174058362</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8930,7 +8930,7 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>268.3307616249986</v>
@@ -8942,7 +8942,7 @@
         <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,22 +9009,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O15" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
         <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>302.6050945428341</v>
       </c>
       <c r="L17" t="n">
-        <v>315.3824838598364</v>
+        <v>318.2816584678408</v>
       </c>
       <c r="M17" t="n">
-        <v>313.314557649326</v>
+        <v>309.5275274928898</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>313.0665358437401</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>314.2013201773229</v>
+        <v>313.7482392531231</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>220.8097633964123</v>
+        <v>220.3566824722126</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>151.2198145378078</v>
       </c>
       <c r="N18" t="n">
-        <v>210.9577809731825</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>225.5645688664978</v>
+        <v>225.111487942298</v>
       </c>
       <c r="P18" t="n">
-        <v>216.9427318363836</v>
+        <v>216.4896509121838</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>349.0484638974528</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10200,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10589,16 +10589,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>302.3407949121221</v>
       </c>
       <c r="M35" t="n">
-        <v>442.9042031968742</v>
+        <v>439.7773491643288</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>274.7339861853848</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>351.1123497494756</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>171.3267296122922</v>
       </c>
       <c r="N36" t="n">
-        <v>166.6617783020295</v>
+        <v>340.7728280203893</v>
       </c>
       <c r="O36" t="n">
-        <v>355.1542144140459</v>
+        <v>352.0273603815004</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10832,10 +10832,10 @@
         <v>431.7766451430912</v>
       </c>
       <c r="N38" t="n">
-        <v>430.8434755124093</v>
+        <v>430.8434755124094</v>
       </c>
       <c r="O38" t="n">
-        <v>248.3043592288139</v>
+        <v>352.3599207549981</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>155.6485823383519</v>
+        <v>282.2723803765714</v>
       </c>
       <c r="N39" t="n">
         <v>332.7721239991517</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>393.8123794255929</v>
+        <v>394.2654603497927</v>
       </c>
       <c r="M41" t="n">
-        <v>345.4311926625269</v>
+        <v>388.8452786070782</v>
       </c>
       <c r="N41" t="n">
-        <v>387.4590280521966</v>
+        <v>387.9121089763964</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>232.6260694604888</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>296.6003442354798</v>
+        <v>220.5539096763245</v>
       </c>
       <c r="M42" t="n">
-        <v>300.179998377624</v>
+        <v>300.6330793018238</v>
       </c>
       <c r="N42" t="n">
-        <v>289.387676538939</v>
+        <v>289.8407574631387</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>301.0952898242499</v>
       </c>
       <c r="P42" t="n">
-        <v>159.0108782981566</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23255,31 +23255,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>380.0124009283741</v>
+        <v>378.5121426804356</v>
       </c>
       <c r="C11" t="n">
-        <v>362.551451035901</v>
+        <v>361.0511927879626</v>
       </c>
       <c r="D11" t="n">
-        <v>351.9616008855764</v>
+        <v>350.461342637638</v>
       </c>
       <c r="E11" t="n">
-        <v>379.2089293371553</v>
+        <v>377.7086710892168</v>
       </c>
       <c r="F11" t="n">
-        <v>404.1546050066049</v>
+        <v>402.6543467586665</v>
       </c>
       <c r="G11" t="n">
-        <v>412.5812967800285</v>
+        <v>411.0810385320901</v>
       </c>
       <c r="H11" t="n">
-        <v>336.7533613806606</v>
+        <v>335.2531031327222</v>
       </c>
       <c r="I11" t="n">
-        <v>207.7544488352994</v>
+        <v>174.6710176467579</v>
       </c>
       <c r="J11" t="n">
-        <v>9.227848619506005</v>
+        <v>7.727590371567552</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,31 +23300,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.269258479438292</v>
+        <v>5.769000231499839</v>
       </c>
       <c r="R11" t="n">
-        <v>147.1476772060432</v>
+        <v>114.0642460175017</v>
       </c>
       <c r="S11" t="n">
-        <v>206.2986288511388</v>
+        <v>173.2151976625973</v>
       </c>
       <c r="T11" t="n">
-        <v>220.3744088290248</v>
+        <v>218.8741505810864</v>
       </c>
       <c r="U11" t="n">
-        <v>220.1678932646724</v>
+        <v>219.3054951987084</v>
       </c>
       <c r="V11" t="n">
-        <v>299.9664920408113</v>
+        <v>323.5305594870899</v>
       </c>
       <c r="W11" t="n">
-        <v>318.0632090742489</v>
+        <v>345.019269734368</v>
       </c>
       <c r="X11" t="n">
-        <v>338.5533410353049</v>
+        <v>365.5094016954241</v>
       </c>
       <c r="Y11" t="n">
-        <v>383.5164979209471</v>
+        <v>382.0162396730086</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>163.8117429147608</v>
+        <v>130.7283117262193</v>
       </c>
       <c r="C12" t="n">
-        <v>169.9870582532092</v>
+        <v>168.4868000052708</v>
       </c>
       <c r="D12" t="n">
-        <v>144.7236248295322</v>
+        <v>111.6401936409908</v>
       </c>
       <c r="E12" t="n">
-        <v>154.9236397202944</v>
+        <v>153.423381472356</v>
       </c>
       <c r="F12" t="n">
-        <v>117.2834459640602</v>
+        <v>140.8475134103389</v>
       </c>
       <c r="G12" t="n">
-        <v>106.1657575200465</v>
+        <v>133.1218181801657</v>
       </c>
       <c r="H12" t="n">
-        <v>81.05768459333235</v>
+        <v>108.0137452534515</v>
       </c>
       <c r="I12" t="n">
-        <v>58.21887320825097</v>
+        <v>85.17493386837012</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>97.43639341753662</v>
+        <v>68.11767644351505</v>
       </c>
       <c r="S12" t="n">
-        <v>168.9617303687313</v>
+        <v>167.4614721207928</v>
       </c>
       <c r="T12" t="n">
-        <v>197.4432879597151</v>
+        <v>195.9430297117766</v>
       </c>
       <c r="U12" t="n">
-        <v>223.2199413458683</v>
+        <v>221.7196830979298</v>
       </c>
       <c r="V12" t="n">
-        <v>230.0791464143188</v>
+        <v>228.5788881663803</v>
       </c>
       <c r="W12" t="n">
-        <v>248.9735424258131</v>
+        <v>247.4732841778746</v>
       </c>
       <c r="X12" t="n">
-        <v>203.051544468371</v>
+        <v>201.5512862204325</v>
       </c>
       <c r="Y12" t="n">
-        <v>202.9612550421978</v>
+        <v>169.8778238536564</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23413,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.6542205387732</v>
+        <v>175.6102811988923</v>
       </c>
       <c r="C13" t="n">
-        <v>164.5253803635213</v>
+        <v>163.0251221155829</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8940322831058</v>
+        <v>144.3937740351674</v>
       </c>
       <c r="E13" t="n">
-        <v>143.7125219114627</v>
+        <v>142.2122636635242</v>
       </c>
       <c r="F13" t="n">
-        <v>142.6996072878247</v>
+        <v>141.1993490398863</v>
       </c>
       <c r="G13" t="n">
-        <v>165.2695386233522</v>
+        <v>163.7692803754138</v>
       </c>
       <c r="H13" t="n">
-        <v>159.5057317723331</v>
+        <v>158.0054735243946</v>
       </c>
       <c r="I13" t="n">
-        <v>124.2727152840942</v>
+        <v>151.2287759442133</v>
       </c>
       <c r="J13" t="n">
-        <v>62.18142047350867</v>
+        <v>89.13748113362782</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>18.04779284283789</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23458,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.9243279131471</v>
+        <v>81.94034426864943</v>
       </c>
       <c r="R13" t="n">
-        <v>174.571950642063</v>
+        <v>141.4885194535215</v>
       </c>
       <c r="S13" t="n">
-        <v>221.2951573018657</v>
+        <v>219.7948990539273</v>
       </c>
       <c r="T13" t="n">
-        <v>225.224148693175</v>
+        <v>195.9054317191534</v>
       </c>
       <c r="U13" t="n">
-        <v>283.5975886213844</v>
+        <v>250.5141574328429</v>
       </c>
       <c r="V13" t="n">
-        <v>249.4162025887215</v>
+        <v>247.915944340783</v>
       </c>
       <c r="W13" t="n">
-        <v>283.8015576014845</v>
+        <v>250.718126412943</v>
       </c>
       <c r="X13" t="n">
-        <v>222.9882146539306</v>
+        <v>221.4879564059922</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.8632126169883</v>
+        <v>214.3629543690498</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>346.4637129632183</v>
+        <v>346.7627158626902</v>
       </c>
       <c r="C14" t="n">
-        <v>329.0027630707453</v>
+        <v>329.3017659702172</v>
       </c>
       <c r="D14" t="n">
-        <v>318.4129129204207</v>
+        <v>318.7119158198926</v>
       </c>
       <c r="E14" t="n">
-        <v>345.6602413719995</v>
+        <v>345.9592442714714</v>
       </c>
       <c r="F14" t="n">
-        <v>370.6059170414492</v>
+        <v>331.3210429790805</v>
       </c>
       <c r="G14" t="n">
-        <v>379.0326088148728</v>
+        <v>339.7477347525041</v>
       </c>
       <c r="H14" t="n">
-        <v>303.2046734155049</v>
+        <v>268.6381974869876</v>
       </c>
       <c r="I14" t="n">
-        <v>174.2057608701436</v>
+        <v>134.9208868077749</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.01511227904683</v>
+        <v>113.8979921403593</v>
       </c>
       <c r="S14" t="n">
-        <v>133.1660639241425</v>
+        <v>173.048943785455</v>
       </c>
       <c r="T14" t="n">
-        <v>147.2418439020285</v>
+        <v>187.124723763341</v>
       </c>
       <c r="U14" t="n">
-        <v>180.2100453795851</v>
+        <v>215.3745271070461</v>
       </c>
       <c r="V14" t="n">
-        <v>291.4821297698726</v>
+        <v>291.7811326693445</v>
       </c>
       <c r="W14" t="n">
-        <v>312.9708400171507</v>
+        <v>313.2698429166226</v>
       </c>
       <c r="X14" t="n">
-        <v>333.4609719782068</v>
+        <v>333.7599748776786</v>
       </c>
       <c r="Y14" t="n">
-        <v>349.9678099557913</v>
+        <v>350.2668128552632</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>130.2630549496051</v>
+        <v>130.562057849077</v>
       </c>
       <c r="C15" t="n">
-        <v>96.85449332621289</v>
+        <v>101.8718943595362</v>
       </c>
       <c r="D15" t="n">
-        <v>71.5910599025359</v>
+        <v>111.4739397638484</v>
       </c>
       <c r="E15" t="n">
-        <v>121.3749517551387</v>
+        <v>121.6739546546106</v>
       </c>
       <c r="F15" t="n">
-        <v>108.7990836931216</v>
+        <v>109.0980865925935</v>
       </c>
       <c r="G15" t="n">
-        <v>101.0733884629484</v>
+        <v>101.3723913624202</v>
       </c>
       <c r="H15" t="n">
-        <v>75.96531553623421</v>
+        <v>76.26431843570607</v>
       </c>
       <c r="I15" t="n">
-        <v>53.12650415115282</v>
+        <v>53.42550705062469</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>63.88770545238088</v>
+        <v>24.60283139001216</v>
       </c>
       <c r="S15" t="n">
-        <v>135.4130424035756</v>
+        <v>96.12816834120684</v>
       </c>
       <c r="T15" t="n">
-        <v>163.8945999945593</v>
+        <v>124.6097259321906</v>
       </c>
       <c r="U15" t="n">
-        <v>189.6712533807126</v>
+        <v>189.9702562801844</v>
       </c>
       <c r="V15" t="n">
-        <v>156.9465814873224</v>
+        <v>196.8294613486349</v>
       </c>
       <c r="W15" t="n">
-        <v>215.4248544606573</v>
+        <v>215.7238573601292</v>
       </c>
       <c r="X15" t="n">
-        <v>169.5028565032152</v>
+        <v>169.8018594026871</v>
       </c>
       <c r="Y15" t="n">
-        <v>134.5470882490529</v>
+        <v>169.711569976514</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>143.561851481675</v>
+        <v>143.8608543811469</v>
       </c>
       <c r="C16" t="n">
-        <v>130.9766923983656</v>
+        <v>131.2756952978374</v>
       </c>
       <c r="D16" t="n">
-        <v>112.3453443179501</v>
+        <v>112.644347217422</v>
       </c>
       <c r="E16" t="n">
-        <v>110.1638339463069</v>
+        <v>110.4628368457788</v>
       </c>
       <c r="F16" t="n">
-        <v>109.150919322669</v>
+        <v>109.4499222221409</v>
       </c>
       <c r="G16" t="n">
-        <v>131.7208506581965</v>
+        <v>97.1543747296792</v>
       </c>
       <c r="H16" t="n">
-        <v>86.37316684533673</v>
+        <v>86.6721697448086</v>
       </c>
       <c r="I16" t="n">
-        <v>79.59646926515543</v>
+        <v>79.89547216462731</v>
       </c>
       <c r="J16" t="n">
-        <v>17.50517445456993</v>
+        <v>17.8041773540418</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23695,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.89191455143213</v>
+        <v>50.190917450904</v>
       </c>
       <c r="R16" t="n">
-        <v>141.0232626769072</v>
+        <v>141.3222655763791</v>
       </c>
       <c r="S16" t="n">
-        <v>187.74646933671</v>
+        <v>188.0454722361819</v>
       </c>
       <c r="T16" t="n">
-        <v>191.6754607280192</v>
+        <v>191.9744636274911</v>
       </c>
       <c r="U16" t="n">
-        <v>250.0489006562286</v>
+        <v>250.3479035557005</v>
       </c>
       <c r="V16" t="n">
-        <v>215.8675146235657</v>
+        <v>216.1665175230376</v>
       </c>
       <c r="W16" t="n">
-        <v>250.2528696363287</v>
+        <v>250.5518725358006</v>
       </c>
       <c r="X16" t="n">
-        <v>189.4395266887749</v>
+        <v>189.7385295882468</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.4490458238434</v>
+        <v>182.6135275513044</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>263.495388541165</v>
+        <v>346.7627158626902</v>
       </c>
       <c r="C17" t="n">
-        <v>329.0027630707453</v>
+        <v>329.3017659702172</v>
       </c>
       <c r="D17" t="n">
-        <v>318.4129129204207</v>
+        <v>318.7119158198926</v>
       </c>
       <c r="E17" t="n">
-        <v>345.6602413719995</v>
+        <v>345.9592442714714</v>
       </c>
       <c r="F17" t="n">
-        <v>370.6059170414492</v>
+        <v>370.904919940921</v>
       </c>
       <c r="G17" t="n">
-        <v>379.0326088148728</v>
+        <v>379.3316117143447</v>
       </c>
       <c r="H17" t="n">
-        <v>303.2046734155049</v>
+        <v>303.5036763149768</v>
       </c>
       <c r="I17" t="n">
-        <v>174.2057608701436</v>
+        <v>174.5047637696155</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.5989892408874</v>
+        <v>31.38274864250569</v>
       </c>
       <c r="S17" t="n">
-        <v>172.7499408859831</v>
+        <v>90.53370028760135</v>
       </c>
       <c r="T17" t="n">
-        <v>186.8257208638691</v>
+        <v>104.6094802654874</v>
       </c>
       <c r="U17" t="n">
-        <v>215.0755242075742</v>
+        <v>142.6951006341367</v>
       </c>
       <c r="V17" t="n">
-        <v>291.4821297698726</v>
+        <v>291.7811326693445</v>
       </c>
       <c r="W17" t="n">
-        <v>239.8923398662062</v>
+        <v>313.2698429166226</v>
       </c>
       <c r="X17" t="n">
-        <v>250.4926475561534</v>
+        <v>333.7599748776786</v>
       </c>
       <c r="Y17" t="n">
-        <v>266.999485533738</v>
+        <v>350.2668128552632</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23808,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>130.2630549496051</v>
+        <v>130.562057849077</v>
       </c>
       <c r="C18" t="n">
-        <v>136.4383702880535</v>
+        <v>136.7373731875253</v>
       </c>
       <c r="D18" t="n">
-        <v>111.1749368643765</v>
+        <v>111.4739397638484</v>
       </c>
       <c r="E18" t="n">
-        <v>121.3749517551387</v>
+        <v>121.6739546546106</v>
       </c>
       <c r="F18" t="n">
-        <v>25.83075927106827</v>
+        <v>109.0980865925935</v>
       </c>
       <c r="G18" t="n">
-        <v>18.10506404089503</v>
+        <v>101.3723913624202</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>76.26431843570609</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>53.4255070506247</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>63.88770545238088</v>
+        <v>64.18670835185276</v>
       </c>
       <c r="S18" t="n">
-        <v>135.4130424035756</v>
+        <v>135.7120453030474</v>
       </c>
       <c r="T18" t="n">
-        <v>163.8945999945593</v>
+        <v>91.51417642112177</v>
       </c>
       <c r="U18" t="n">
-        <v>189.6712533807126</v>
+        <v>107.4550127823308</v>
       </c>
       <c r="V18" t="n">
-        <v>196.530458449163</v>
+        <v>114.3142178507813</v>
       </c>
       <c r="W18" t="n">
-        <v>215.4248544606573</v>
+        <v>133.2086138622756</v>
       </c>
       <c r="X18" t="n">
-        <v>169.5028565032152</v>
+        <v>169.8018594026871</v>
       </c>
       <c r="Y18" t="n">
-        <v>142.4575621914313</v>
+        <v>169.711569976514</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>143.561851481675</v>
+        <v>71.18142790823748</v>
       </c>
       <c r="C19" t="n">
-        <v>130.9766923983656</v>
+        <v>131.2756952978374</v>
       </c>
       <c r="D19" t="n">
-        <v>112.3453443179501</v>
+        <v>112.644347217422</v>
       </c>
       <c r="E19" t="n">
-        <v>27.19550952425357</v>
+        <v>110.4628368457788</v>
       </c>
       <c r="F19" t="n">
-        <v>109.150919322669</v>
+        <v>109.4499222221409</v>
       </c>
       <c r="G19" t="n">
-        <v>131.7208506581965</v>
+        <v>132.0198535576684</v>
       </c>
       <c r="H19" t="n">
-        <v>125.9570438071773</v>
+        <v>126.2560467066492</v>
       </c>
       <c r="I19" t="n">
-        <v>36.21202180494268</v>
+        <v>119.4793491264679</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>57.38805431588239</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>50.190917450904</v>
       </c>
       <c r="R19" t="n">
-        <v>141.0232626769072</v>
+        <v>141.3222655763791</v>
       </c>
       <c r="S19" t="n">
-        <v>187.74646933671</v>
+        <v>188.0454722361819</v>
       </c>
       <c r="T19" t="n">
-        <v>191.6754607280192</v>
+        <v>191.9744636274911</v>
       </c>
       <c r="U19" t="n">
-        <v>250.0489006562286</v>
+        <v>250.3479035557005</v>
       </c>
       <c r="V19" t="n">
-        <v>215.8675146235657</v>
+        <v>216.1665175230376</v>
       </c>
       <c r="W19" t="n">
-        <v>201.1870110311735</v>
+        <v>168.036629037947</v>
       </c>
       <c r="X19" t="n">
-        <v>189.4395266887749</v>
+        <v>107.2232860903932</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.3145246518325</v>
+        <v>100.0982840534508</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>344.4563234220872</v>
+        <v>244.3605432773452</v>
       </c>
       <c r="C20" t="n">
-        <v>326.9953735296141</v>
+        <v>86.28008755142696</v>
       </c>
       <c r="D20" t="n">
-        <v>316.4055233792895</v>
+        <v>316.7045262787614</v>
       </c>
       <c r="E20" t="n">
-        <v>343.6528518308684</v>
+        <v>343.9518547303402</v>
       </c>
       <c r="F20" t="n">
-        <v>368.598527500318</v>
+        <v>127.8832415221308</v>
       </c>
       <c r="G20" t="n">
-        <v>377.0252192737416</v>
+        <v>136.3099332955545</v>
       </c>
       <c r="H20" t="n">
-        <v>301.1972838743737</v>
+        <v>301.4962867738456</v>
       </c>
       <c r="I20" t="n">
-        <v>172.1983713290125</v>
+        <v>172.4973742284843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>111.5915996997562</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>170.7425513448519</v>
+        <v>171.0415542443238</v>
       </c>
       <c r="T20" t="n">
-        <v>184.8183313227379</v>
+        <v>185.1173342222098</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7827490230010596</v>
+        <v>213.3671375659149</v>
       </c>
       <c r="V20" t="n">
-        <v>289.4747402287415</v>
+        <v>289.7737431282134</v>
       </c>
       <c r="W20" t="n">
-        <v>69.94916159836055</v>
+        <v>311.2624533754915</v>
       </c>
       <c r="X20" t="n">
-        <v>90.43929355941657</v>
+        <v>331.7525853365475</v>
       </c>
       <c r="Y20" t="n">
-        <v>106.9461315370011</v>
+        <v>348.2594233141321</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>128.2556654084739</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>109.1675473232453</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.3675622140075</v>
+        <v>119.6665651134794</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>99.0659989218172</v>
+        <v>99.36500182128907</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>74.25692889457491</v>
       </c>
       <c r="I21" t="n">
-        <v>51.11911461002165</v>
+        <v>51.41811750949352</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.16866531848841</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.4056528624444</v>
+        <v>133.7046557619163</v>
       </c>
       <c r="T21" t="n">
-        <v>161.8872104534282</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>187.6638638395814</v>
+        <v>187.9628667390533</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>177.4177187422237</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>167.7944698615559</v>
       </c>
       <c r="Y21" t="n">
-        <v>167.4051775359109</v>
+        <v>167.7041804353828</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>141.5544619405439</v>
+        <v>99.02146972540132</v>
       </c>
       <c r="C22" t="n">
-        <v>128.9693028572344</v>
+        <v>129.2683057567063</v>
       </c>
       <c r="D22" t="n">
-        <v>110.3379547768189</v>
+        <v>110.6369576762908</v>
       </c>
       <c r="E22" t="n">
-        <v>108.1564444051757</v>
+        <v>108.4554473046476</v>
       </c>
       <c r="F22" t="n">
-        <v>107.1435297815378</v>
+        <v>107.4425326810097</v>
       </c>
       <c r="G22" t="n">
-        <v>129.7134611170653</v>
+        <v>130.0124640165372</v>
       </c>
       <c r="H22" t="n">
-        <v>123.9496542660461</v>
+        <v>124.248657165518</v>
       </c>
       <c r="I22" t="n">
-        <v>117.1729566858648</v>
+        <v>117.4719595853367</v>
       </c>
       <c r="J22" t="n">
-        <v>55.08166187527934</v>
+        <v>55.38066477475122</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24169,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.88452501030095</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>139.3148760352479</v>
       </c>
       <c r="S22" t="n">
-        <v>185.7390797955788</v>
+        <v>186.0380826950507</v>
       </c>
       <c r="T22" t="n">
-        <v>189.6680711868881</v>
+        <v>189.9670740863599</v>
       </c>
       <c r="U22" t="n">
-        <v>248.0415111150974</v>
+        <v>7.326225136910267</v>
       </c>
       <c r="V22" t="n">
-        <v>213.8601250824346</v>
+        <v>214.1591279819064</v>
       </c>
       <c r="W22" t="n">
-        <v>53.47322487829294</v>
+        <v>248.5444829946694</v>
       </c>
       <c r="X22" t="n">
-        <v>187.4321371476437</v>
+        <v>187.7311400471156</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.3071351107014</v>
+        <v>180.6061380101732</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>340.4963790075352</v>
+        <v>128.5099962635651</v>
       </c>
       <c r="C23" t="n">
-        <v>323.0354291150622</v>
+        <v>82.320143136875</v>
       </c>
       <c r="D23" t="n">
-        <v>312.4455789647376</v>
+        <v>71.73029298655041</v>
       </c>
       <c r="E23" t="n">
-        <v>339.6929074163164</v>
+        <v>98.97762143812923</v>
       </c>
       <c r="F23" t="n">
-        <v>123.624294208107</v>
+        <v>364.9375859852379</v>
       </c>
       <c r="G23" t="n">
-        <v>132.0509859815306</v>
+        <v>373.3642777586616</v>
       </c>
       <c r="H23" t="n">
-        <v>56.22305058216273</v>
+        <v>297.5363423592937</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>168.5374298139324</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>107.6316552852043</v>
+        <v>107.9306581846762</v>
       </c>
       <c r="S23" t="n">
-        <v>166.7826069302999</v>
+        <v>167.0816098297718</v>
       </c>
       <c r="T23" t="n">
-        <v>180.858386908186</v>
+        <v>181.1573898076579</v>
       </c>
       <c r="U23" t="n">
-        <v>209.1081902518911</v>
+        <v>209.407193151363</v>
       </c>
       <c r="V23" t="n">
-        <v>285.5147958141895</v>
+        <v>285.8137987136614</v>
       </c>
       <c r="W23" t="n">
-        <v>307.0035060614676</v>
+        <v>307.3025089609395</v>
       </c>
       <c r="X23" t="n">
-        <v>283.446679293542</v>
+        <v>327.7926409219955</v>
       </c>
       <c r="Y23" t="n">
-        <v>344.0004760001082</v>
+        <v>344.2994788995801</v>
       </c>
     </row>
     <row r="24">
@@ -24285,25 +24285,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>58.86714630027593</v>
       </c>
       <c r="D24" t="n">
-        <v>105.2076029086934</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>115.4076177994556</v>
+        <v>115.7066206989275</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>95.10605450726524</v>
+        <v>95.40505740673714</v>
       </c>
       <c r="H24" t="n">
-        <v>69.99798158055108</v>
+        <v>70.29698448002296</v>
       </c>
       <c r="I24" t="n">
-        <v>47.15917019546969</v>
+        <v>47.45817309494158</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>16.6289024578746</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>129.4457084478924</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>157.9272660388762</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>183.7039194250294</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>190.5631244934799</v>
+        <v>190.8621273929518</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>209.7565234044461</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>163.834525447004</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>163.7442360208309</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>137.8935204254638</v>
       </c>
       <c r="C25" t="n">
-        <v>125.0093584426824</v>
+        <v>125.3083613421543</v>
       </c>
       <c r="D25" t="n">
-        <v>96.79773107924663</v>
+        <v>106.6770132617389</v>
       </c>
       <c r="E25" t="n">
-        <v>104.1964999906238</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>103.1835853669859</v>
+        <v>103.4825882664578</v>
       </c>
       <c r="G25" t="n">
-        <v>125.7535167025134</v>
+        <v>126.0525196019853</v>
       </c>
       <c r="H25" t="n">
-        <v>119.9897098514942</v>
+        <v>120.2887127509661</v>
       </c>
       <c r="I25" t="n">
-        <v>113.2130122713129</v>
+        <v>113.5120151707848</v>
       </c>
       <c r="J25" t="n">
-        <v>51.12171746072739</v>
+        <v>51.42072036019928</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.924580595749</v>
+        <v>44.22358349522089</v>
       </c>
       <c r="R25" t="n">
-        <v>135.0559287212241</v>
+        <v>135.354931620696</v>
       </c>
       <c r="S25" t="n">
-        <v>181.7791353810269</v>
+        <v>182.0781382804988</v>
       </c>
       <c r="T25" t="n">
-        <v>185.7081267723361</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>244.0815667005455</v>
+        <v>244.3805696000174</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>210.1991835673545</v>
       </c>
       <c r="W25" t="n">
-        <v>244.2855356806456</v>
+        <v>179.7705101157609</v>
       </c>
       <c r="X25" t="n">
-        <v>183.4721927330918</v>
+        <v>183.7711956325637</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.3471906961494</v>
+        <v>176.6461935956213</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321.1043631723916</v>
+        <v>322.9036243198019</v>
       </c>
       <c r="C26" t="n">
-        <v>303.6434132799185</v>
+        <v>93.15728878388677</v>
       </c>
       <c r="D26" t="n">
-        <v>293.053563129594</v>
+        <v>294.8528242770043</v>
       </c>
       <c r="E26" t="n">
-        <v>320.3008915811728</v>
+        <v>322.1001527285831</v>
       </c>
       <c r="F26" t="n">
-        <v>345.2465672506224</v>
+        <v>347.0458283980328</v>
       </c>
       <c r="G26" t="n">
-        <v>353.673259024046</v>
+        <v>355.4725201714564</v>
       </c>
       <c r="H26" t="n">
-        <v>170.344136260925</v>
+        <v>38.63029589442942</v>
       </c>
       <c r="I26" t="n">
-        <v>148.8464110793169</v>
+        <v>150.6456722267272</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>90.03890059747101</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>149.1898522425667</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>163.2656322204527</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>191.5154355641578</v>
       </c>
       <c r="V26" t="n">
-        <v>25.10849110138685</v>
+        <v>267.9220411264562</v>
       </c>
       <c r="W26" t="n">
-        <v>287.611490226324</v>
+        <v>48.39646249607529</v>
       </c>
       <c r="X26" t="n">
-        <v>308.10162218738</v>
+        <v>309.9008833347904</v>
       </c>
       <c r="Y26" t="n">
-        <v>324.6084601649646</v>
+        <v>85.39343243471586</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.64743158179077</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>87.61484822096008</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>97.81486311172227</v>
       </c>
       <c r="F27" t="n">
-        <v>83.43973390229488</v>
+        <v>85.23899504970521</v>
       </c>
       <c r="G27" t="n">
-        <v>75.71403867212163</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>50.60596574540747</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>27.76715436032608</v>
+        <v>29.5664155077364</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.52835566155414</v>
+        <v>40.32761680896446</v>
       </c>
       <c r="S27" t="n">
-        <v>110.0536926127488</v>
+        <v>4.166521175098069</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>166.1111647372961</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>172.9703698057466</v>
       </c>
       <c r="W27" t="n">
-        <v>190.0655046698306</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>144.0532172862154</v>
+        <v>145.8524784336257</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>118.2025016908483</v>
+        <v>120.0017628382586</v>
       </c>
       <c r="C28" t="n">
-        <v>105.6173426075388</v>
+        <v>107.4166037549492</v>
       </c>
       <c r="D28" t="n">
-        <v>86.98599452712335</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>84.80448415548017</v>
+        <v>15.30223108003541</v>
       </c>
       <c r="F28" t="n">
-        <v>83.79156953184224</v>
+        <v>85.59083067925258</v>
       </c>
       <c r="G28" t="n">
-        <v>106.3615008673698</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>100.5976940163506</v>
+        <v>102.3969551637609</v>
       </c>
       <c r="I28" t="n">
-        <v>93.82099643616928</v>
+        <v>95.62025758357962</v>
       </c>
       <c r="J28" t="n">
-        <v>31.72970162558378</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,28 +24643,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>26.33182590801571</v>
       </c>
       <c r="R28" t="n">
-        <v>115.6639128860805</v>
+        <v>117.4631740334908</v>
       </c>
       <c r="S28" t="n">
-        <v>63.27135820319315</v>
+        <v>164.1863806932936</v>
       </c>
       <c r="T28" t="n">
-        <v>166.3161109371925</v>
+        <v>168.1153720846028</v>
       </c>
       <c r="U28" t="n">
-        <v>224.6895508654019</v>
+        <v>226.4888120128122</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>192.3074259801493</v>
       </c>
       <c r="W28" t="n">
-        <v>224.893519845502</v>
+        <v>226.6927809929123</v>
       </c>
       <c r="X28" t="n">
-        <v>164.0801768979481</v>
+        <v>165.8794380453585</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>267.6875362946341</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F29" t="n">
         <v>292.6332119640838</v>
@@ -24695,7 +24695,7 @@
         <v>301.0599037375074</v>
       </c>
       <c r="H29" t="n">
-        <v>225.2319683381395</v>
+        <v>107.7238185033152</v>
       </c>
       <c r="I29" t="n">
         <v>96.23305579277827</v>
@@ -24728,7 +24728,7 @@
         <v>35.62628416352204</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>108.8530157865037</v>
@@ -24740,13 +24740,13 @@
         <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X29" t="n">
-        <v>14.47397802318233</v>
+        <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.69356529711018</v>
+        <v>30.98081600076688</v>
       </c>
     </row>
     <row r="30">
@@ -24856,7 +24856,7 @@
         <v>47.98433872981194</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>24.47039302755983</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>63.05055759954185</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>93.03651613727365</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.4910078858529</v>
+        <v>39.84922066828747</v>
       </c>
       <c r="C32" t="n">
         <v>251.0300579933799</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>267.6875362946341</v>
@@ -24929,10 +24929,10 @@
         <v>292.6332119640838</v>
       </c>
       <c r="G32" t="n">
-        <v>60.04561485984834</v>
+        <v>301.0599037375074</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>96.23305579277827</v>
@@ -24968,19 +24968,19 @@
         <v>94.7772358086177</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>108.8530157865037</v>
       </c>
       <c r="U32" t="n">
         <v>137.1028191302088</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>213.5094246925073</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>234.9981349397854</v>
       </c>
       <c r="X32" t="n">
-        <v>118.5348789208775</v>
+        <v>14.47397802318233</v>
       </c>
       <c r="Y32" t="n">
         <v>271.9951048784259</v>
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.6159135720083</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>69.57862019267114</v>
+        <v>172.0761955788632</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.8948095462003</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2801645589633</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,19 +25157,19 @@
         <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>29.88962741458508</v>
+        <v>57.98067046682758</v>
       </c>
       <c r="E35" t="n">
-        <v>57.1369558661639</v>
+        <v>60.2638098987093</v>
       </c>
       <c r="F35" t="n">
-        <v>82.08263153561356</v>
+        <v>294.640601505215</v>
       </c>
       <c r="G35" t="n">
-        <v>303.0672932786386</v>
+        <v>93.63617734158257</v>
       </c>
       <c r="H35" t="n">
-        <v>179.1285066013859</v>
+        <v>17.80824194221466</v>
       </c>
       <c r="I35" t="n">
         <v>98.24044533390945</v>
@@ -25208,7 +25208,7 @@
         <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
         <v>215.5168142336385</v>
@@ -25239,7 +25239,7 @@
         <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>7.782184157971713</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25290,13 +25290,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>113.4544202544548</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>93.53754096698101</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.59653594544083</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.7555351219623</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>33.84455949655143</v>
+        <v>10.01153056374173</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>113.4742111525407</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.4583418415361</v>
+        <v>274.458341841536</v>
       </c>
       <c r="C38" t="n">
         <v>256.9973919490631</v>
       </c>
       <c r="D38" t="n">
-        <v>246.4075417987385</v>
+        <v>246.4075417987384</v>
       </c>
       <c r="E38" t="n">
-        <v>273.6548702503173</v>
+        <v>96.23496343486431</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6005459197669</v>
+        <v>97.17013400394842</v>
       </c>
       <c r="G38" t="n">
-        <v>105.5968257773721</v>
+        <v>105.596825777372</v>
       </c>
       <c r="H38" t="n">
-        <v>29.76889037800422</v>
+        <v>231.1993022938226</v>
       </c>
       <c r="I38" t="n">
         <v>102.2003897484614</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.59361811920517</v>
+        <v>41.59361811920516</v>
       </c>
       <c r="S38" t="n">
         <v>100.7445697643008</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>114.8203497421868</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>143.070153085892</v>
       </c>
       <c r="V38" t="n">
         <v>219.4767586481904</v>
@@ -25454,7 +25454,7 @@
         <v>240.9654688954685</v>
       </c>
       <c r="X38" t="n">
-        <v>140.4957849533321</v>
+        <v>60.02518894070602</v>
       </c>
       <c r="Y38" t="n">
         <v>277.9624388341091</v>
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58.25768382792283</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>39.16956574269425</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>45.24945735816699</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>29.06801734126613</v>
+        <v>29.06801734126611</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25518,16 +25518,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.40767128189331</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>117.6658822590303</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>88.41849595164663</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.55648035999279</v>
+        <v>71.55648035999278</v>
       </c>
       <c r="C40" t="n">
-        <v>58.97132127668333</v>
+        <v>58.97132127668331</v>
       </c>
       <c r="D40" t="n">
-        <v>40.33997319626785</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>38.15846282462466</v>
+        <v>38.15846282462465</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>59.71547953651424</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>47.17497510531378</v>
+        <v>47.17497510531376</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>69.01789155522496</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>119.670089606337</v>
       </c>
       <c r="U40" t="n">
-        <v>79.31747586846694</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>143.8621435018835</v>
       </c>
       <c r="W40" t="n">
-        <v>178.2474985146465</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>49.50148688130484</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>296.5717984117862</v>
+        <v>138.0727530319807</v>
       </c>
       <c r="C41" t="n">
         <v>279.1108485193132</v>
@@ -25640,10 +25640,10 @@
         <v>320.714002490017</v>
       </c>
       <c r="G41" t="n">
-        <v>171.094729807835</v>
+        <v>329.1406942634407</v>
       </c>
       <c r="H41" t="n">
-        <v>95.26679440846706</v>
+        <v>94.81371348426728</v>
       </c>
       <c r="I41" t="n">
         <v>124.3138463187115</v>
@@ -25685,16 +25685,16 @@
         <v>165.1836096561421</v>
       </c>
       <c r="V41" t="n">
-        <v>102.3833297259431</v>
+        <v>241.5902152184405</v>
       </c>
       <c r="W41" t="n">
-        <v>263.0789254657186</v>
+        <v>123.472966295186</v>
       </c>
       <c r="X41" t="n">
-        <v>125.5230929711689</v>
+        <v>283.5690574267746</v>
       </c>
       <c r="Y41" t="n">
-        <v>300.0758954043592</v>
+        <v>141.5768500245537</v>
       </c>
     </row>
     <row r="42">
@@ -25710,10 +25710,10 @@
         <v>86.54645573662135</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>61.28302231294437</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>71.48303720370656</v>
       </c>
       <c r="F42" t="n">
         <v>58.90716914168949</v>
@@ -25755,7 +25755,7 @@
         <v>13.99579090094875</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>85.52112785214344</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>146.6385438977309</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>143.7780252167227</v>
+        <v>70.46135472119779</v>
       </c>
       <c r="X42" t="n">
-        <v>119.6109419517831</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>119.52065252561</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>93.66993693024291</v>
       </c>
       <c r="C43" t="n">
         <v>81.08477784693345</v>
@@ -25798,7 +25798,7 @@
         <v>59.25900477123686</v>
       </c>
       <c r="G43" t="n">
-        <v>81.82893610676437</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>76.06512925574519</v>
@@ -25837,22 +25837,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>141.7835461765871</v>
       </c>
       <c r="U43" t="n">
-        <v>200.1569861047965</v>
+        <v>155.9309565619704</v>
       </c>
       <c r="V43" t="n">
-        <v>125.7583906371446</v>
+        <v>7.476554692328136</v>
       </c>
       <c r="W43" t="n">
         <v>200.3609550848966</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.5476121373428</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.4226101004004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>283642.1155721098</v>
+        <v>289102.0416663883</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362621.5392268918</v>
+        <v>361997.8191785935</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390977.0895001864</v>
+        <v>390057.6117355353</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>485699.8541146184</v>
+        <v>485039.2094208567</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>494449.3219949827</v>
+        <v>493788.6773012208</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>537295.8374818151</v>
+        <v>533320.3832911445</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652005.372714942</v>
+        <v>652005.3727149419</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631538.8231313865</v>
+        <v>629752.5346600793</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>544060.0678379841</v>
+        <v>544355.825554337</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774089</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774088</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774084</v>
+        <v>716866.7963774087</v>
       </c>
       <c r="E2" t="n">
-        <v>208443.8326258918</v>
+        <v>213364.0700310299</v>
       </c>
       <c r="F2" t="n">
-        <v>285502.6622405058</v>
+        <v>284878.9421922084</v>
       </c>
       <c r="G2" t="n">
-        <v>307011.4652036401</v>
+        <v>306163.1202287734</v>
       </c>
       <c r="H2" t="n">
-        <v>376921.3326833187</v>
+        <v>376260.6879895568</v>
       </c>
       <c r="I2" t="n">
-        <v>385670.8005636832</v>
+        <v>385010.1558699212</v>
       </c>
       <c r="J2" t="n">
-        <v>428517.316050515</v>
+        <v>424541.8618598441</v>
       </c>
       <c r="K2" t="n">
-        <v>543226.8512836429</v>
+        <v>543226.8512836427</v>
       </c>
       <c r="L2" t="n">
         <v>543226.8512836426</v>
       </c>
       <c r="M2" t="n">
-        <v>527227.8862811386</v>
+        <v>525932.5075760642</v>
       </c>
       <c r="N2" t="n">
         <v>514165.6824341228</v>
       </c>
       <c r="O2" t="n">
-        <v>448307.4057281693</v>
+        <v>448532.0306547384</v>
       </c>
       <c r="P2" t="n">
         <v>188137.9596800312</v>
@@ -26372,19 +26372,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10673.58337501523</v>
+        <v>12807.39979669534</v>
       </c>
       <c r="F3" t="n">
-        <v>30027.28507104282</v>
+        <v>27691.95117458545</v>
       </c>
       <c r="G3" t="n">
-        <v>11891.02628213241</v>
+        <v>11766.84359702313</v>
       </c>
       <c r="H3" t="n">
-        <v>44248.13525670747</v>
+        <v>44370.38056778488</v>
       </c>
       <c r="I3" t="n">
-        <v>3167.955531641564</v>
+        <v>3167.955531641553</v>
       </c>
       <c r="J3" t="n">
         <v>17690.76525620011</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>80133.11849231474</v>
+        <v>82139.73036385671</v>
       </c>
       <c r="F4" t="n">
-        <v>129050.238195975</v>
+        <v>127804.4782364625</v>
       </c>
       <c r="G4" t="n">
-        <v>138299.9610644639</v>
+        <v>136883.6208816611</v>
       </c>
       <c r="H4" t="n">
-        <v>166394.1898488951</v>
+        <v>164779.394468038</v>
       </c>
       <c r="I4" t="n">
-        <v>172108.845694156</v>
+        <v>170494.0503132988</v>
       </c>
       <c r="J4" t="n">
-        <v>200093.7578652611</v>
+        <v>196313.9170523325</v>
       </c>
       <c r="K4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="L4" t="n">
-        <v>275031.9162557056</v>
+        <v>273848.6164940641</v>
       </c>
       <c r="M4" t="n">
-        <v>267743.8141920414</v>
+        <v>266115.9375995769</v>
       </c>
       <c r="N4" t="n">
-        <v>260446.4674364817</v>
+        <v>259330.7703711178</v>
       </c>
       <c r="O4" t="n">
-        <v>222240.9091399112</v>
+        <v>221295.406379964</v>
       </c>
       <c r="P4" t="n">
-        <v>70639.97070810379</v>
+        <v>69879.81359544017</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1958.932990769571</v>
+        <v>2275.170926594271</v>
       </c>
       <c r="F5" t="n">
-        <v>5455.893168982255</v>
+        <v>5430.756294226555</v>
       </c>
       <c r="G5" t="n">
-        <v>8093.667574563191</v>
+        <v>8040.983379616146</v>
       </c>
       <c r="H5" t="n">
-        <v>17871.62144479738</v>
+        <v>17846.48457004167</v>
       </c>
       <c r="I5" t="n">
-        <v>18204.53001178434</v>
+        <v>18179.39313702864</v>
       </c>
       <c r="J5" t="n">
-        <v>19834.79739102903</v>
+        <v>19683.53530562739</v>
       </c>
       <c r="K5" t="n">
         <v>24257.94955661305</v>
@@ -26500,13 +26500,13 @@
         <v>24257.94955661305</v>
       </c>
       <c r="M5" t="n">
-        <v>22359.04613566979</v>
+        <v>22168.93341049103</v>
       </c>
       <c r="N5" t="n">
-        <v>21349.58203901281</v>
+        <v>21349.58203901282</v>
       </c>
       <c r="O5" t="n">
-        <v>16852.75145302752</v>
+        <v>16880.29877321887</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267706.6406517865</v>
+        <v>268466.7977644498</v>
       </c>
       <c r="C6" t="n">
-        <v>267706.6406517862</v>
+        <v>268466.7977644498</v>
       </c>
       <c r="D6" t="n">
-        <v>267706.640651786</v>
+        <v>268466.7977644498</v>
       </c>
       <c r="E6" t="n">
-        <v>115678.1977677922</v>
+        <v>116141.7689438836</v>
       </c>
       <c r="F6" t="n">
-        <v>120969.2458045057</v>
+        <v>123951.7564869339</v>
       </c>
       <c r="G6" t="n">
-        <v>148726.8102824806</v>
+        <v>149471.6723704731</v>
       </c>
       <c r="H6" t="n">
-        <v>148407.3861329187</v>
+        <v>149264.4283836923</v>
       </c>
       <c r="I6" t="n">
-        <v>192189.4693261013</v>
+        <v>193168.7568879522</v>
       </c>
       <c r="J6" t="n">
-        <v>190897.9955380248</v>
+        <v>190853.6442456841</v>
       </c>
       <c r="K6" t="n">
-        <v>175007.3508699688</v>
+        <v>176190.6506316101</v>
       </c>
       <c r="L6" t="n">
-        <v>243936.9854713239</v>
+        <v>245120.2852329654</v>
       </c>
       <c r="M6" t="n">
-        <v>237125.0259534275</v>
+        <v>237647.6365659963</v>
       </c>
       <c r="N6" t="n">
-        <v>232369.6329586283</v>
+        <v>233485.3300239922</v>
       </c>
       <c r="O6" t="n">
-        <v>209213.7451352305</v>
+        <v>210356.3255015555</v>
       </c>
       <c r="P6" t="n">
-        <v>117497.9889719274</v>
+        <v>118258.146084591</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="F2" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="G2" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="H2" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="I2" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="J2" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26796,13 +26796,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="F4" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>82.96832442205334</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26820,13 +26820,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="M4" t="n">
-        <v>212.5579699696014</v>
+        <v>209.431115937056</v>
       </c>
       <c r="N4" t="n">
-        <v>201.4304119158184</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044966</v>
       </c>
       <c r="F2" t="n">
-        <v>33.54868796515574</v>
+        <v>31.74942681774542</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>2.007389541131175</v>
       </c>
       <c r="I2" t="n">
-        <v>3.959944414551956</v>
+        <v>3.959944414551941</v>
       </c>
       <c r="J2" t="n">
         <v>22.11345657025014</v>
@@ -27018,16 +27018,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="F4" t="n">
-        <v>11.12755805378299</v>
+        <v>8.000704021237567</v>
       </c>
       <c r="G4" t="n">
-        <v>43.38444746021275</v>
+        <v>42.93136653601302</v>
       </c>
       <c r="H4" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044966</v>
       </c>
       <c r="K2" t="n">
-        <v>33.54868796515574</v>
+        <v>31.74942681774542</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>2.007389541131175</v>
       </c>
       <c r="N2" t="n">
-        <v>3.959944414551956</v>
+        <v>3.959944414551941</v>
       </c>
       <c r="O2" t="n">
         <v>22.11345657025014</v>
@@ -27264,16 +27264,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="N4" t="n">
-        <v>11.12755805378299</v>
+        <v>8.000704021237567</v>
       </c>
       <c r="O4" t="n">
-        <v>43.38444746021275</v>
+        <v>42.93136653601302</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
     </row>
   </sheetData>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="C11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="D11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="E11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="F11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="G11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="H11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="I11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="J11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28132,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="R11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="S11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="T11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="U11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="V11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="W11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="X11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="C12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="D12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="E12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="F12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="G12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="H12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="I12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="S12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="T12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="U12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="V12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="W12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="X12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
     </row>
     <row r="13">
@@ -28245,37 +28245,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="C13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="D13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="E13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="F13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="G13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="H13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="I13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="J13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="K13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8662936477414611</v>
+        <v>3.993147680286881</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28284,37 +28284,37 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="R13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="S13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="T13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="U13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="V13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="W13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="X13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.721440735106512</v>
+        <v>4.221698983044965</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="C14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="I14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="S14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="T14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="U14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="V14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="W14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="X14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="C15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="D15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="E15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="F15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="G15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="I15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="S15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="T15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="U15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="V15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="W15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="X15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
     </row>
     <row r="16">
@@ -28482,37 +28482,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="C16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="D16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="E16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="F16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="G16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="J16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="K16" t="n">
-        <v>35.668892309569</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="L16" t="n">
-        <v>11.99385170152445</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28524,34 +28524,34 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>14.41305894540957</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="R16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="S16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="T16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="U16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="V16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="W16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="X16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079039</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="I17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="S17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="T17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="U17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="V17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="W17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="X17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="C18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="D18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="E18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="F18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="G18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="I18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="S18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="T18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="U18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="V18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="W18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="X18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="Y18" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="C19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="D19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="E19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="F19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="G19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="J19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="K19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="L19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="M19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="N19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="O19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="P19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="R19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="S19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="T19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="U19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="V19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="W19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="X19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
       <c r="Y19" t="n">
-        <v>36.27012870026225</v>
+        <v>35.97112580079038</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="C20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="D20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="E20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="F20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="G20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="H20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="I20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="S20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="T20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="U20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="V20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="W20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="X20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="Y20" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="C21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="D21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="E21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="F21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="G21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="H21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="I21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="S21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="T21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="U21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="V21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="W21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="X21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="Y21" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="C22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="D22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="E22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="F22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="G22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="H22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="I22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="J22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="K22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="L22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="M22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="N22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="O22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="P22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="R22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="S22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="T22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="U22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="V22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="W22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="X22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.27751824139343</v>
+        <v>37.97851534192156</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="C23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="D23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="E23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="F23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="G23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="H23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="I23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="S23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="T23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="U23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="V23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="W23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="X23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="Y23" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="C24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="D24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="E24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="F24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="G24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="H24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="I24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="T24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="U24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="V24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="W24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="X24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="Y24" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="C25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="D25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="E25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="F25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="G25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="H25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="I25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="J25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="L25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="M25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="N25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="O25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="P25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="R25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="S25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="T25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="U25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="V25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="W25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="X25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.23746265594539</v>
+        <v>41.9384597564735</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="C26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="D26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="E26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="F26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="G26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="H26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="I26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="S26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="T26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="U26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="V26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="W26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="X26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="Y26" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="C27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="D27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="E27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="F27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="G27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="H27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="I27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="S27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="T27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="U27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="V27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="W27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="X27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="C28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="D28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="E28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="F28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="G28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="H28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="I28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="J28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="K28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="L28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="M28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="N28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="O28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="P28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="R28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="S28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="T28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="U28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="V28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="W28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="X28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.629478491089</v>
+        <v>59.83021734367868</v>
       </c>
     </row>
     <row r="29">
@@ -30648,10 +30648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="M43" t="n">
+        <v>85.88169347278685</v>
+      </c>
+      <c r="N43" t="n">
         <v>86.16204325169439</v>
-      </c>
-      <c r="N43" t="n">
-        <v>84.08767607595533</v>
       </c>
       <c r="O43" t="n">
         <v>86.16204325169439</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="L11" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="M11" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>30.3070851450231</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>27.30656864914619</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>27.30656864914618</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="M12" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>30.3070851450231</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.4563189080576</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,19 +35571,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="M13" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="N13" t="n">
-        <v>28.4563189080576</v>
+        <v>31.58317294060302</v>
       </c>
       <c r="O13" t="n">
-        <v>27.30656864914619</v>
+        <v>28.80682689708464</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.500258247938453</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>37.98452839772582</v>
@@ -35662,7 +35662,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N15" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,10 +35805,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>13.39940048368615</v>
+        <v>13.70163397490754</v>
       </c>
       <c r="L16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
         <v>39.58387696184059</v>
@@ -35820,7 +35820,7 @@
         <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>11.69161821030305</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="L17" t="n">
-        <v>79.61606888984915</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="M17" t="n">
-        <v>82.96832442205334</v>
+        <v>79.1812942656171</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>82.96832442205334</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>82.96832442205334</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>82.96832442205334</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>9.085780615789528</v>
       </c>
       <c r="N18" t="n">
-        <v>79.61606888984915</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>82.96832442205334</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="P18" t="n">
-        <v>82.96832442205334</v>
+        <v>82.5152434978536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>14.0006368743794</v>
+        <v>13.70163397490753</v>
       </c>
       <c r="L19" t="n">
-        <v>63.86015396057839</v>
+        <v>63.56115106110652</v>
       </c>
       <c r="M19" t="n">
-        <v>75.85400566210285</v>
+        <v>75.55500276263098</v>
       </c>
       <c r="N19" t="n">
-        <v>80.40230107949085</v>
+        <v>80.10329818001898</v>
       </c>
       <c r="O19" t="n">
-        <v>60.85525661430193</v>
+        <v>60.55625371483006</v>
       </c>
       <c r="P19" t="n">
-        <v>33.54868796515574</v>
+        <v>33.24968506568387</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.00802641551058</v>
+        <v>15.70902351603871</v>
       </c>
       <c r="L22" t="n">
-        <v>65.86754350170958</v>
+        <v>65.5685406022377</v>
       </c>
       <c r="M22" t="n">
-        <v>77.86139520323403</v>
+        <v>77.56239230376215</v>
       </c>
       <c r="N22" t="n">
-        <v>82.40969062062203</v>
+        <v>82.11068772115016</v>
       </c>
       <c r="O22" t="n">
-        <v>62.8626461554331</v>
+        <v>62.56364325596123</v>
       </c>
       <c r="P22" t="n">
-        <v>35.55607750628692</v>
+        <v>35.25707460681505</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>217.7067518141195</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>19.96797083006253</v>
+        <v>19.66896793059065</v>
       </c>
       <c r="L25" t="n">
-        <v>69.82748791626153</v>
+        <v>69.52848501678963</v>
       </c>
       <c r="M25" t="n">
-        <v>81.82133961778598</v>
+        <v>81.52233671831408</v>
       </c>
       <c r="N25" t="n">
-        <v>86.36963503517399</v>
+        <v>86.07063213570208</v>
       </c>
       <c r="O25" t="n">
-        <v>66.82259056998507</v>
+        <v>66.52358767051317</v>
       </c>
       <c r="P25" t="n">
-        <v>39.51602192083887</v>
+        <v>39.21701902136699</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,22 +36677,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.35998666520614</v>
+        <v>37.56072551779582</v>
       </c>
       <c r="L28" t="n">
-        <v>89.21950375140514</v>
+        <v>87.42024260399481</v>
       </c>
       <c r="M28" t="n">
-        <v>101.2133554529296</v>
+        <v>99.41409430551926</v>
       </c>
       <c r="N28" t="n">
-        <v>105.7616508703176</v>
+        <v>103.9623897229073</v>
       </c>
       <c r="O28" t="n">
-        <v>86.21460640512868</v>
+        <v>84.41534525771834</v>
       </c>
       <c r="P28" t="n">
-        <v>58.90803775598248</v>
+        <v>57.10877660857216</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36920,16 +36920,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O30" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37309,16 +37309,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>181.8947995804632</v>
+        <v>66.57437994213484</v>
       </c>
       <c r="M35" t="n">
-        <v>212.5579699696014</v>
+        <v>209.431115937056</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>44.63577476369802</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37388,16 +37388,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>212.5579699696014</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>29.1926956902739</v>
       </c>
       <c r="N36" t="n">
-        <v>35.32006621869618</v>
+        <v>209.431115937056</v>
       </c>
       <c r="O36" t="n">
-        <v>212.5579699696014</v>
+        <v>209.431115937056</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37543,19 +37543,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>201.4304119158184</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="N38" t="n">
-        <v>201.4304119158184</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="O38" t="n">
-        <v>18.20614780712715</v>
+        <v>122.2617093333113</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>13.51454841633359</v>
+        <v>140.1383464545531</v>
       </c>
       <c r="N39" t="n">
-        <v>201.4304119158184</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="O39" t="n">
-        <v>201.4304119158184</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.91631970527173</v>
+        <v>14.91631970527175</v>
       </c>
       <c r="K40" t="n">
-        <v>86.00600799606165</v>
+        <v>86.00600799606167</v>
       </c>
       <c r="L40" t="n">
         <v>135.8655250822607</v>
@@ -37719,7 +37719,7 @@
         <v>105.554059086838</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.11345657025012</v>
+        <v>22.11345657025014</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="M41" t="n">
-        <v>115.0849594352542</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="N41" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>1.393073705219309</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>158.0459644556057</v>
+        <v>81.99952989645028</v>
       </c>
       <c r="M42" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="N42" t="n">
-        <v>158.0459644556057</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>158.4990453798055</v>
       </c>
       <c r="P42" t="n">
-        <v>25.03647088382631</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>113.7520685120105</v>
       </c>
       <c r="M43" t="n">
-        <v>125.745920213535</v>
+        <v>125.4655704346274</v>
       </c>
       <c r="N43" t="n">
-        <v>128.2198484551839</v>
+        <v>130.294215630923</v>
       </c>
       <c r="O43" t="n">
         <v>110.7471711657341</v>
